--- a/data_clean/Frontline 14.01.2021.xlsx
+++ b/data_clean/Frontline 14.01.2021.xlsx
@@ -1059,7 +1059,7 @@
         <v>0.9204115592333509</v>
       </c>
       <c r="K2">
-        <v>47.21393244752178</v>
+        <v>-0.02786067552478231</v>
       </c>
       <c r="L2">
         <v>-0.007306427689283747</v>
@@ -1089,13 +1089,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L3">
         <v>-0.2436204309020516</v>
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1201,7 +1201,7 @@
         <v>0.3095975232198138</v>
       </c>
       <c r="K4">
-        <v>23.64066193853425</v>
+        <v>-0.2635933806146575</v>
       </c>
       <c r="L4">
         <v>-0.153771402576365</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.9989398758140239</v>
+        <v>-0.001060124185976119</v>
       </c>
       <c r="V4">
-        <v>0.9989398758140239</v>
+        <v>-0.001060124185976119</v>
       </c>
       <c r="W4">
-        <v>1.004578754578755</v>
+        <v>0.004578754578754562</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1272,7 +1272,7 @@
         <v>0.7006680788658906</v>
       </c>
       <c r="K5">
-        <v>41.19957842291829</v>
+        <v>-0.08800421577081707</v>
       </c>
       <c r="L5">
         <v>-0.09290860913915314</v>
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.000833838690115</v>
+        <v>0.0008338386901152184</v>
       </c>
       <c r="V5">
-        <v>1.000833838690115</v>
+        <v>0.0008338386901152184</v>
       </c>
       <c r="W5">
-        <v>1.005469462169553</v>
+        <v>0.005469462169553241</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1343,7 +1343,7 @@
         <v>0.6556824474531092</v>
       </c>
       <c r="K6">
-        <v>39.60194471238899</v>
+        <v>-0.1039805528761101</v>
       </c>
       <c r="L6">
         <v>-0.05985833770819897</v>
@@ -1373,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.000318109520563</v>
+        <v>0.0003181095205633255</v>
       </c>
       <c r="V6">
-        <v>1.000318109520563</v>
+        <v>0.0003181095205633255</v>
       </c>
       <c r="W6">
-        <v>0.9990933816863101</v>
+        <v>-0.0009066183136898776</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1414,7 +1414,7 @@
         <v>0.9935977717863501</v>
       </c>
       <c r="K7">
-        <v>49.8394302927036</v>
+        <v>-0.001605697072963985</v>
       </c>
       <c r="L7">
         <v>-0.03363620194527712</v>
@@ -1444,13 +1444,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.000969168332425</v>
+        <v>0.0009691683324248856</v>
       </c>
       <c r="V7">
-        <v>1.000969168332425</v>
+        <v>0.0009691683324248856</v>
       </c>
       <c r="W7">
-        <v>1.00453720508167</v>
+        <v>0.00453720508166966</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1485,7 +1485,7 @@
         <v>0.6632915357724124</v>
       </c>
       <c r="K8">
-        <v>39.87824873192707</v>
+        <v>-0.1012175126807293</v>
       </c>
       <c r="L8">
         <v>-0.02210755481010833</v>
@@ -1515,13 +1515,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.9997838772422736</v>
+        <v>-0.0002161227577264224</v>
       </c>
       <c r="V8">
-        <v>0.9997838772422736</v>
+        <v>-0.0002161227577264224</v>
       </c>
       <c r="W8">
-        <v>0.9936766034327009</v>
+        <v>-0.006323396567299078</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1556,7 +1556,7 @@
         <v>0.6632915357724124</v>
       </c>
       <c r="K9">
-        <v>39.87824873192707</v>
+        <v>-0.1012175126807293</v>
       </c>
       <c r="L9">
         <v>-0.01657167349252035</v>
@@ -1586,13 +1586,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.9998378728923476</v>
+        <v>-0.0001621271076523989</v>
       </c>
       <c r="V9">
-        <v>0.9998378728923476</v>
+        <v>-0.0001621271076523989</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1627,7 +1627,7 @@
         <v>0.7685339759528153</v>
       </c>
       <c r="K10">
-        <v>43.45599159545464</v>
+        <v>-0.06544008404545359</v>
       </c>
       <c r="L10">
         <v>-0.01231557579849175</v>
@@ -1657,13 +1657,13 @@
         <v>-0.04791666666666572</v>
       </c>
       <c r="U10">
-        <v>1.00007567158532</v>
+        <v>7.567158531984752E-05</v>
       </c>
       <c r="V10">
-        <v>1.00007567158532</v>
+        <v>7.567158531984752E-05</v>
       </c>
       <c r="W10">
-        <v>1.001818181818182</v>
+        <v>0.001818181818181941</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1698,7 +1698,7 @@
         <v>0.691885816334639</v>
       </c>
       <c r="K11">
-        <v>40.89435644265668</v>
+        <v>-0.09105643557343318</v>
       </c>
       <c r="L11">
         <v>-0.01027457294448328</v>
@@ -1728,13 +1728,13 @@
         <v>0.008749999999999147</v>
       </c>
       <c r="U11">
-        <v>0.9998789346246973</v>
+        <v>-0.0001210653753026536</v>
       </c>
       <c r="V11">
-        <v>0.9998789346246973</v>
+        <v>-0.0001210653753026536</v>
       </c>
       <c r="W11">
-        <v>0.9981851179673321</v>
+        <v>-0.001814882032667886</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1769,7 +1769,7 @@
         <v>0.7443768419800938</v>
       </c>
       <c r="K12">
-        <v>42.67293763973211</v>
+        <v>-0.07327062360267889</v>
       </c>
       <c r="L12">
         <v>-0.00875322912993612</v>
@@ -1799,13 +1799,13 @@
         <v>0.03465909090909491</v>
       </c>
       <c r="U12">
-        <v>0.9999834890862859</v>
+        <v>-1.651091371412949E-05</v>
       </c>
       <c r="V12">
-        <v>0.9999834890862859</v>
+        <v>-1.651091371412949E-05</v>
       </c>
       <c r="W12">
-        <v>1.000909090909091</v>
+        <v>0.0009090909090907484</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1840,7 +1840,7 @@
         <v>0.7054008283274006</v>
       </c>
       <c r="K13">
-        <v>41.36275863189499</v>
+        <v>-0.08637241368105009</v>
       </c>
       <c r="L13">
         <v>-0.008083059869177416</v>
@@ -1870,13 +1870,13 @@
         <v>0.0208333333333357</v>
       </c>
       <c r="U13">
-        <v>0.9999105644073861</v>
+        <v>-8.943559261387346E-05</v>
       </c>
       <c r="V13">
-        <v>0.9999105644073861</v>
+        <v>-8.943559261387346E-05</v>
       </c>
       <c r="W13">
-        <v>0.9990917347865578</v>
+        <v>-0.0009082652134422275</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1911,7 +1911,7 @@
         <v>0.6685526055995606</v>
       </c>
       <c r="K14">
-        <v>40.06781706228134</v>
+        <v>-0.09932182937718659</v>
       </c>
       <c r="L14">
         <v>-0.008302517580526464</v>
@@ -1941,13 +1941,13 @@
         <v>0.01009615384614904</v>
       </c>
       <c r="U14">
-        <v>0.9998544556934023</v>
+        <v>-0.0001455443065977446</v>
       </c>
       <c r="V14">
-        <v>0.9998544556934023</v>
+        <v>-0.0001455443065977446</v>
       </c>
       <c r="W14">
-        <v>0.9990909090909091</v>
+        <v>-0.0009090909090908594</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1982,7 +1982,7 @@
         <v>0.6685526055995606</v>
       </c>
       <c r="K15">
-        <v>40.06781706228134</v>
+        <v>-0.09932182937718659</v>
       </c>
       <c r="L15">
         <v>-0.008886884520816502</v>
@@ -2012,13 +2012,13 @@
         <v>-0.03303571428570962</v>
       </c>
       <c r="U15">
-        <v>0.9998752295775771</v>
+        <v>-0.0001247704224228707</v>
       </c>
       <c r="V15">
-        <v>0.9998752295775771</v>
+        <v>-0.0001247704224228707</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2053,7 +2053,7 @@
         <v>0.8421945436913941</v>
       </c>
       <c r="K16">
-        <v>45.71691662943495</v>
+        <v>-0.0428308337056505</v>
       </c>
       <c r="L16">
         <v>-0.008276933403288</v>
@@ -2083,13 +2083,13 @@
         <v>-0.02458333333332519</v>
       </c>
       <c r="U16">
-        <v>1.000073540544633</v>
+        <v>7.354054463259985E-05</v>
       </c>
       <c r="V16">
-        <v>1.000073540544633</v>
+        <v>7.354054463259985E-05</v>
       </c>
       <c r="W16">
-        <v>1.002729754322111</v>
+        <v>0.002729754322110978</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2124,7 +2124,7 @@
         <v>0.9031215395130872</v>
       </c>
       <c r="K17">
-        <v>47.45474846257851</v>
+        <v>-0.02545251537421495</v>
       </c>
       <c r="L17">
         <v>-0.006646885933993224</v>
@@ -2154,13 +2154,13 @@
         <v>-0.01249999999999574</v>
       </c>
       <c r="U17">
-        <v>1.000121116695937</v>
+        <v>0.0001211166959365073</v>
       </c>
       <c r="V17">
-        <v>0.9996366499121904</v>
+        <v>-0.000363350087809633</v>
       </c>
       <c r="W17">
-        <v>1.000907441016334</v>
+        <v>0.0009074410163338875</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2195,7 +2195,7 @@
         <v>1.095522578950022</v>
       </c>
       <c r="K18">
-        <v>52.27920662629855</v>
+        <v>0.02279206626298547</v>
       </c>
       <c r="L18">
         <v>-0.003384699166453776</v>
@@ -2225,13 +2225,13 @@
         <v>0.02187500000000142</v>
       </c>
       <c r="U18">
-        <v>1.000267136827483</v>
+        <v>0.0002671368274831387</v>
       </c>
       <c r="V18">
-        <v>1.000848125037863</v>
+        <v>0.0008481250378629124</v>
       </c>
       <c r="W18">
-        <v>1.00271985494107</v>
+        <v>0.002719854941069855</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2266,7 +2266,7 @@
         <v>0.9652025916511477</v>
       </c>
       <c r="K19">
-        <v>49.11466104063053</v>
+        <v>-0.008853389593694694</v>
       </c>
       <c r="L19">
         <v>-0.0002413429606703509</v>
@@ -2296,13 +2296,13 @@
         <v>0.009374999999998579</v>
       </c>
       <c r="U19">
-        <v>1.0001365001365</v>
+        <v>0.0001365001365001284</v>
       </c>
       <c r="V19">
-        <v>1.000423703165668</v>
+        <v>0.0004237031656679768</v>
       </c>
       <c r="W19">
-        <v>0.9981916817359856</v>
+        <v>-0.001808318264014397</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2337,7 +2337,7 @@
         <v>0.8577917860142916</v>
       </c>
       <c r="K20">
-        <v>46.17265467916611</v>
+        <v>-0.03827345320833886</v>
       </c>
       <c r="L20">
         <v>0.001848546552741709</v>
@@ -2367,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>1.000026546746166</v>
+        <v>2.654674616553443E-05</v>
       </c>
       <c r="V20">
-        <v>0.9999394966118101</v>
+        <v>-6.050338818985868E-05</v>
       </c>
       <c r="W20">
-        <v>0.9981884057971014</v>
+        <v>-0.001811594202898559</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2408,7 +2408,7 @@
         <v>0.9749319666473719</v>
       </c>
       <c r="K21">
-        <v>49.36534438208565</v>
+        <v>-0.006346556179143537</v>
       </c>
       <c r="L21">
         <v>0.003921516413689174</v>
@@ -2438,13 +2438,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U21">
-        <v>1.000114678899082</v>
+        <v>0.0001146788990824543</v>
       </c>
       <c r="V21">
-        <v>1.000121014098142</v>
+        <v>0.000121014098142469</v>
       </c>
       <c r="W21">
-        <v>1.001814882032668</v>
+        <v>0.001814882032667997</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2479,7 +2479,7 @@
         <v>0.7820659690115794</v>
       </c>
       <c r="K22">
-        <v>43.88535456099593</v>
+        <v>-0.06114645439004074</v>
       </c>
       <c r="L22">
         <v>0.004371002593654379</v>
@@ -2509,13 +2509,13 @@
         <v>0.03437499999999716</v>
       </c>
       <c r="U22">
-        <v>0.9999308365321437</v>
+        <v>-6.916346785634797E-05</v>
       </c>
       <c r="V22">
-        <v>0.9995765019057414</v>
+        <v>-0.0004234980942585675</v>
       </c>
       <c r="W22">
-        <v>0.9963768115942029</v>
+        <v>-0.003623188405797118</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2550,7 +2550,7 @@
         <v>0.8341252014918595</v>
       </c>
       <c r="K23">
-        <v>45.47809499664419</v>
+        <v>-0.04521905003355814</v>
       </c>
       <c r="L23">
         <v>0.004195038163728498</v>
@@ -2580,13 +2580,13 @@
         <v>0.06562500000000426</v>
       </c>
       <c r="U23">
-        <v>0.9999783849213213</v>
+        <v>-2.161507867870505E-05</v>
       </c>
       <c r="V23">
-        <v>1.000060525360126</v>
+        <v>6.052536012579601E-05</v>
       </c>
       <c r="W23">
-        <v>1.000909090909091</v>
+        <v>0.0009090909090907484</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2621,7 +2621,7 @@
         <v>0.8889243935763728</v>
       </c>
       <c r="K24">
-        <v>47.05981862478562</v>
+        <v>-0.02940181375214379</v>
       </c>
       <c r="L24">
         <v>0.004004874526481373</v>
@@ -2651,13 +2651,13 @@
         <v>0.05937499999999574</v>
       </c>
       <c r="U24">
-        <v>1.000019735933214</v>
+        <v>1.973593321369371E-05</v>
       </c>
       <c r="V24">
-        <v>1.000121043394057</v>
+        <v>0.0001210433940568301</v>
       </c>
       <c r="W24">
-        <v>1.000908265213442</v>
+        <v>0.0009082652134424496</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2692,7 +2692,7 @@
         <v>1.06197447384324</v>
       </c>
       <c r="K25">
-        <v>51.50279439996481</v>
+        <v>0.01502794399964813</v>
       </c>
       <c r="L25">
         <v>0.004851450063642686</v>
@@ -2722,13 +2722,13 @@
         <v>0.05624999999999858</v>
       </c>
       <c r="U25">
-        <v>1.000131570291428</v>
+        <v>0.0001315702914281847</v>
       </c>
       <c r="V25">
-        <v>1.00018154311649</v>
+        <v>0.0001815431164902126</v>
       </c>
       <c r="W25">
-        <v>1.002722323049002</v>
+        <v>0.002722323049001885</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2763,7 +2763,7 @@
         <v>1.061974473843241</v>
       </c>
       <c r="K26">
-        <v>51.50279439996481</v>
+        <v>0.01502794399964813</v>
       </c>
       <c r="L26">
         <v>0.006230464040493378</v>
@@ -2793,13 +2793,13 @@
         <v>0.04062499999999858</v>
       </c>
       <c r="U26">
-        <v>1.000121028744327</v>
+        <v>0.0001210287443267344</v>
       </c>
       <c r="V26">
-        <v>1.000302516940949</v>
+        <v>0.0003025169409487383</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2834,7 +2834,7 @@
         <v>0.8911086338310872</v>
       </c>
       <c r="K27">
-        <v>47.12096480813172</v>
+        <v>-0.02879035191868273</v>
       </c>
       <c r="L27">
         <v>0.006775749339443702</v>
@@ -2864,13 +2864,13 @@
         <v>0.02187500000000142</v>
       </c>
       <c r="U27">
-        <v>1.000006981582585</v>
+        <v>6.981582585163792E-06</v>
       </c>
       <c r="V27">
-        <v>1.000060485090425</v>
+        <v>6.04850904253329E-05</v>
       </c>
       <c r="W27">
-        <v>0.9972850678733032</v>
+        <v>-0.002714932126696823</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2905,7 +2905,7 @@
         <v>0.8911086338310871</v>
       </c>
       <c r="K28">
-        <v>47.12096480813172</v>
+        <v>-0.02879035191868273</v>
       </c>
       <c r="L28">
         <v>0.006765036009858474</v>
@@ -2935,13 +2935,13 @@
         <v>0.01874999999999005</v>
       </c>
       <c r="U28">
-        <v>1.000006464383188</v>
+        <v>6.464383188076184E-06</v>
       </c>
       <c r="V28">
-        <v>1.000120962864401</v>
+        <v>0.0001209628644005534</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2976,7 +2976,7 @@
         <v>0.8411244114357528</v>
       </c>
       <c r="K29">
-        <v>45.68536521547851</v>
+        <v>-0.04314634784521493</v>
       </c>
       <c r="L29">
         <v>0.006059023234545714</v>
@@ -3006,13 +3006,13 @@
         <v>-0.003125000000004263</v>
       </c>
       <c r="U29">
-        <v>0.9999735885479945</v>
+        <v>-2.641145200554806E-05</v>
       </c>
       <c r="V29">
-        <v>1.000120948234156</v>
+        <v>0.0001209482341557599</v>
       </c>
       <c r="W29">
-        <v>0.999092558983666</v>
+        <v>-0.0009074410163339985</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3047,7 +3047,7 @@
         <v>0.841124411435753</v>
       </c>
       <c r="K30">
-        <v>45.68536521547851</v>
+        <v>-0.04314634784521487</v>
       </c>
       <c r="L30">
         <v>0.004962120846143041</v>
@@ -3077,13 +3077,13 @@
         <v>-0.003125000000004263</v>
       </c>
       <c r="U30">
-        <v>0.999975409377969</v>
+        <v>-2.459062203097329E-05</v>
       </c>
       <c r="V30">
-        <v>1.000120933607449</v>
+        <v>0.0001209336074494693</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3118,7 +3118,7 @@
         <v>0.8411244114357531</v>
       </c>
       <c r="K31">
-        <v>45.68536521547852</v>
+        <v>-0.04314634784521482</v>
       </c>
       <c r="L31">
         <v>0.003684777796335891</v>
@@ -3148,13 +3148,13 @@
         <v>-0.009374999999998579</v>
       </c>
       <c r="U31">
-        <v>0.9999770481883717</v>
+        <v>-2.295181162825788E-05</v>
       </c>
       <c r="V31">
-        <v>0.9999395405078598</v>
+        <v>-6.045949214017465E-05</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3189,7 +3189,7 @@
         <v>0.7894745001669473</v>
       </c>
       <c r="K32">
-        <v>44.11767253980395</v>
+        <v>-0.05882327460196052</v>
       </c>
       <c r="L32">
         <v>0.002032725374366519</v>
@@ -3219,13 +3219,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U32">
-        <v>0.9997277018032191</v>
+        <v>-0.0002722981967808735</v>
       </c>
       <c r="V32">
-        <v>0.9998186105568655</v>
+        <v>-0.0001813894431345053</v>
       </c>
       <c r="W32">
-        <v>0.9990917347865578</v>
+        <v>-0.0009082652134422275</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3260,7 +3260,7 @@
         <v>0.6990983182167485</v>
       </c>
       <c r="K33">
-        <v>41.14525396920361</v>
+        <v>-0.0885474603079639</v>
       </c>
       <c r="L33">
         <v>-0.0004149145567006678</v>
@@ -3290,13 +3290,13 @@
         <v>-0.04374999999999574</v>
       </c>
       <c r="U33">
-        <v>1.000181581575523</v>
+        <v>0.0001815815755228378</v>
       </c>
       <c r="V33">
-        <v>0.999516207063377</v>
+        <v>-0.0004837929366230398</v>
       </c>
       <c r="W33">
-        <v>0.9981818181818182</v>
+        <v>-0.00181818181818183</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3331,7 +3331,7 @@
         <v>0.6990983182167486</v>
       </c>
       <c r="K34">
-        <v>41.14525396920362</v>
+        <v>-0.08854746030796384</v>
       </c>
       <c r="L34">
         <v>-0.003180764931771349</v>
@@ -3361,13 +3361,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U34">
-        <v>1.000030258101607</v>
+        <v>3.025810160672826E-05</v>
       </c>
       <c r="V34">
-        <v>0.9996369796708616</v>
+        <v>-0.0003630203291383749</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3402,7 +3402,7 @@
         <v>0.6990983182167485</v>
       </c>
       <c r="K35">
-        <v>41.14525396920361</v>
+        <v>-0.0885474603079639</v>
       </c>
       <c r="L35">
         <v>-0.005947968336690463</v>
@@ -3432,13 +3432,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U35">
-        <v>0.9998487140695915</v>
+        <v>-0.0001512859304084735</v>
       </c>
       <c r="V35">
-        <v>0.9997578985594963</v>
+        <v>-0.0002421014405037392</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3473,7 +3473,7 @@
         <v>0.6167500850887001</v>
       </c>
       <c r="K36">
-        <v>38.14752142442988</v>
+        <v>-0.1185247857557012</v>
       </c>
       <c r="L36">
         <v>-0.009182787071697862</v>
@@ -3503,13 +3503,13 @@
         <v>-0.08749999999999858</v>
       </c>
       <c r="U36">
-        <v>0.9998184294144347</v>
+        <v>-0.0001815705855653382</v>
       </c>
       <c r="V36">
-        <v>0.9995156798643904</v>
+        <v>-0.0004843201356096172</v>
       </c>
       <c r="W36">
-        <v>0.9981785063752276</v>
+        <v>-0.001821493624772352</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3544,7 +3544,7 @@
         <v>0.8027375529506181</v>
       </c>
       <c r="K37">
-        <v>44.52880851329375</v>
+        <v>-0.05471191486706251</v>
       </c>
       <c r="L37">
         <v>-0.01145939486852373</v>
@@ -3574,13 +3574,13 @@
         <v>-0.08437499999999432</v>
       </c>
       <c r="U37">
-        <v>0.9997578619207604</v>
+        <v>-0.0002421380792395622</v>
       </c>
       <c r="V37">
-        <v>0.999939430648092</v>
+        <v>-6.056935190801305E-05</v>
       </c>
       <c r="W37">
-        <v>1.002737226277372</v>
+        <v>0.002737226277372384</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3615,7 +3615,7 @@
         <v>0.802737552950618</v>
       </c>
       <c r="K38">
-        <v>44.52880851329374</v>
+        <v>-0.05471191486706262</v>
       </c>
       <c r="L38">
         <v>-0.01296980321869766</v>
@@ -3645,13 +3645,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U38">
-        <v>0.9999697254094638</v>
+        <v>-3.027459053617232E-05</v>
       </c>
       <c r="V38">
-        <v>0.999878853958447</v>
+        <v>-0.0001211460415529997</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3686,7 +3686,7 @@
         <v>0.8714309852172478</v>
       </c>
       <c r="K39">
-        <v>46.56495441727906</v>
+        <v>-0.03435045582720941</v>
       </c>
       <c r="L39">
         <v>-0.01354098251150785</v>
@@ -3716,13 +3716,13 @@
         <v>-0.09687500000000426</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>0.9998788392803053</v>
+        <v>-0.0001211607196947018</v>
       </c>
       <c r="W39">
-        <v>1.00090991810737</v>
+        <v>0.0009099181073701779</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3757,7 +3757,7 @@
         <v>0.7160916402156068</v>
       </c>
       <c r="K40">
-        <v>41.72805364436356</v>
+        <v>-0.08271946355636445</v>
       </c>
       <c r="L40">
         <v>-0.01445484761733762</v>
@@ -3787,13 +3787,13 @@
         <v>-0.1000000000000014</v>
       </c>
       <c r="U40">
-        <v>0.9998486224644263</v>
+        <v>-0.0001513775355737046</v>
       </c>
       <c r="V40">
-        <v>0.999515298394426</v>
+        <v>-0.0004847016055740117</v>
       </c>
       <c r="W40">
-        <v>0.9972727272727273</v>
+        <v>-0.002727272727272689</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3828,7 +3828,7 @@
         <v>0.7160916402156068</v>
       </c>
       <c r="K41">
-        <v>41.72805364436356</v>
+        <v>-0.08271946355636445</v>
       </c>
       <c r="L41">
         <v>-0.01546475652657752</v>
@@ -3858,13 +3858,13 @@
         <v>-0.08125000000000426</v>
       </c>
       <c r="U41">
-        <v>0.9999091597274793</v>
+        <v>-9.084027252070914E-05</v>
       </c>
       <c r="V41">
-        <v>0.9995150633448506</v>
+        <v>-0.0004849366551493706</v>
       </c>
       <c r="W41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3899,7 +3899,7 @@
         <v>0.7819301521254691</v>
       </c>
       <c r="K42">
-        <v>43.88107756035164</v>
+        <v>-0.06118922439648355</v>
       </c>
       <c r="L42">
         <v>-0.01608011047468288</v>
@@ -3929,13 +3929,13 @@
         <v>-0.05937500000000284</v>
       </c>
       <c r="U42">
-        <v>0.9999091514747742</v>
+        <v>-9.084852522578402E-05</v>
       </c>
       <c r="V42">
-        <v>0.9997574140335981</v>
+        <v>-0.0002425859664019203</v>
       </c>
       <c r="W42">
-        <v>1.000911577028259</v>
+        <v>0.0009115770282588365</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3970,7 +3970,7 @@
         <v>0.6867425563834402</v>
       </c>
       <c r="K43">
-        <v>40.7141299532924</v>
+        <v>-0.09285870046707601</v>
       </c>
       <c r="L43">
         <v>-0.01702221170919805</v>
@@ -4000,13 +4000,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U43">
-        <v>0.9998788576274268</v>
+        <v>-0.000121142372573213</v>
       </c>
       <c r="V43">
-        <v>0.9996360327570517</v>
+        <v>-0.0003639672429482932</v>
       </c>
       <c r="W43">
-        <v>0.9981785063752276</v>
+        <v>-0.001821493624772352</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4041,7 +4041,7 @@
         <v>0.645391909043694</v>
       </c>
       <c r="K44">
-        <v>39.22420582575963</v>
+        <v>-0.1077579417424037</v>
       </c>
       <c r="L44">
         <v>-0.01837164602725021</v>
@@ -4071,13 +4071,13 @@
         <v>-0.03750000000000142</v>
       </c>
       <c r="U44">
-        <v>0.9998788429501743</v>
+        <v>-0.0001211570498257375</v>
       </c>
       <c r="V44">
-        <v>0.9996359002366649</v>
+        <v>-0.0003640997633350684</v>
       </c>
       <c r="W44">
-        <v>0.999087591240876</v>
+        <v>-0.0009124087591240171</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4112,7 +4112,7 @@
         <v>0.8355373869748666</v>
       </c>
       <c r="K45">
-        <v>45.5200418637023</v>
+        <v>-0.04479958136297696</v>
       </c>
       <c r="L45">
         <v>-0.01882027535822895</v>
@@ -4142,13 +4142,13 @@
         <v>-0.03437499999999716</v>
       </c>
       <c r="U45">
-        <v>0.9999697070673411</v>
+        <v>-3.029293265888189E-05</v>
       </c>
       <c r="V45">
-        <v>0.9998178838098706</v>
+        <v>-0.0001821161901294222</v>
       </c>
       <c r="W45">
-        <v>1.002739726027397</v>
+        <v>0.002739726027397138</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4183,7 +4183,7 @@
         <v>0.6961923131655314</v>
       </c>
       <c r="K46">
-        <v>41.04442095167012</v>
+        <v>-0.08955579048329881</v>
       </c>
       <c r="L46">
         <v>-0.01962085538340031</v>
@@ -4213,13 +4213,13 @@
         <v>-0.04062499999999858</v>
       </c>
       <c r="U46">
-        <v>0.9997879430475612</v>
+        <v>-0.000212056952438755</v>
       </c>
       <c r="V46">
-        <v>0.9996357012750456</v>
+        <v>-0.0003642987249543594</v>
       </c>
       <c r="W46">
-        <v>0.9972677595628415</v>
+        <v>-0.002732240437158473</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4254,7 +4254,7 @@
         <v>0.7547091540829338</v>
       </c>
       <c r="K47">
-        <v>43.01049848214695</v>
+        <v>-0.06989501517853047</v>
       </c>
       <c r="L47">
         <v>-0.02018084066288831</v>
@@ -4284,13 +4284,13 @@
         <v>-0.04999999999999716</v>
       </c>
       <c r="U47">
-        <v>0.9997878980698724</v>
+        <v>-0.0002121019301275506</v>
       </c>
       <c r="V47">
-        <v>0.9997570456754131</v>
+        <v>-0.0002429543245868748</v>
       </c>
       <c r="W47">
-        <v>1.000913242009132</v>
+        <v>0.0009132420091324533</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4325,7 +4325,7 @@
         <v>0.6719316443187845</v>
       </c>
       <c r="K48">
-        <v>40.1889423291918</v>
+        <v>-0.09811057670808204</v>
       </c>
       <c r="L48">
         <v>-0.02114905525083341</v>
@@ -4355,13 +4355,13 @@
         <v>-0.04999999999999716</v>
       </c>
       <c r="U48">
-        <v>0.9996363195538854</v>
+        <v>-0.0003636804461145671</v>
       </c>
       <c r="V48">
-        <v>0.9997569866342648</v>
+        <v>-0.0002430133657351785</v>
       </c>
       <c r="W48">
-        <v>0.998175182481752</v>
+        <v>-0.001824817518248034</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4396,7 +4396,7 @@
         <v>0.7296586642793724</v>
       </c>
       <c r="K49">
-        <v>42.18512469241266</v>
+        <v>-0.07814875307587343</v>
       </c>
       <c r="L49">
         <v>-0.02189472058909234</v>
@@ -4426,13 +4426,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U49">
-        <v>0.9997271404317245</v>
+        <v>-0.0002728595682754964</v>
       </c>
       <c r="V49">
-        <v>0.9998176956733107</v>
+        <v>-0.0001823043266893087</v>
       </c>
       <c r="W49">
-        <v>1.00091407678245</v>
+        <v>0.000914076782449591</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4467,7 +4467,7 @@
         <v>0.6505918651513874</v>
       </c>
       <c r="K50">
-        <v>39.415671365357</v>
+        <v>-0.10584328634643</v>
       </c>
       <c r="L50">
         <v>-0.02304162823293833</v>
@@ -4497,13 +4497,13 @@
         <v>-0.06875000000000853</v>
       </c>
       <c r="U50">
-        <v>0.9997270659590599</v>
+        <v>-0.0002729340409400871</v>
       </c>
       <c r="V50">
-        <v>0.999696104053972</v>
+        <v>-0.0003038959460279766</v>
       </c>
       <c r="W50">
-        <v>0.9981735159817351</v>
+        <v>-0.001826484018264907</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4538,7 +4538,7 @@
         <v>0.7646564458695556</v>
       </c>
       <c r="K51">
-        <v>43.33174582845002</v>
+        <v>-0.06668254171549981</v>
       </c>
       <c r="L51">
         <v>-0.02361207983188779</v>
@@ -4568,13 +4568,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U51">
-        <v>0.999726991445732</v>
+        <v>-0.0002730085542680394</v>
       </c>
       <c r="V51">
-        <v>0.9999392023346303</v>
+        <v>-6.07976653697051E-05</v>
       </c>
       <c r="W51">
-        <v>1.001829826166514</v>
+        <v>0.00182982616651417</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4609,7 +4609,7 @@
         <v>0.8246904357212188</v>
       </c>
       <c r="K52">
-        <v>45.19618339508945</v>
+        <v>-0.04803816604910549</v>
       </c>
       <c r="L52">
         <v>-0.02337957137194653</v>
@@ -4639,13 +4639,13 @@
         <v>-0.05937500000000284</v>
       </c>
       <c r="U52">
-        <v>0.9998786297296477</v>
+        <v>-0.0001213702703523056</v>
       </c>
       <c r="V52">
-        <v>0.9998175959141485</v>
+        <v>-0.000182404085851462</v>
       </c>
       <c r="W52">
-        <v>1.000913242009132</v>
+        <v>0.0009132420091324533</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4680,7 +4680,7 @@
         <v>0.8246904357212188</v>
       </c>
       <c r="K53">
-        <v>45.19618339508945</v>
+        <v>-0.04803816604910549</v>
       </c>
       <c r="L53">
         <v>-0.02259022410812653</v>
@@ -4710,13 +4710,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U53">
-        <v>0.9998482687463962</v>
+        <v>-0.0001517312536037929</v>
       </c>
       <c r="V53">
-        <v>0.9998175626368278</v>
+        <v>-0.0001824373631722498</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4751,7 +4751,7 @@
         <v>0.9577297484118948</v>
       </c>
       <c r="K54">
-        <v>48.92042679480161</v>
+        <v>-0.01079573205198386</v>
       </c>
       <c r="L54">
         <v>-0.02076809023774683</v>
@@ -4781,13 +4781,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U54">
-        <v>0.9998785965764235</v>
+        <v>-0.0001214034235764716</v>
       </c>
       <c r="V54">
-        <v>0.9998783528982423</v>
+        <v>-0.0001216471017576604</v>
       </c>
       <c r="W54">
-        <v>1.001824817518248</v>
+        <v>0.001824817518248256</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4822,7 +4822,7 @@
         <v>1.027750439301729</v>
       </c>
       <c r="K55">
-        <v>50.68426663271456</v>
+        <v>0.006842666327145586</v>
       </c>
       <c r="L55">
         <v>-0.01802854945071516</v>
@@ -4852,13 +4852,13 @@
         <v>-0.01875000000000426</v>
       </c>
       <c r="U55">
-        <v>0.999817872753764</v>
+        <v>-0.000182127246236008</v>
       </c>
       <c r="V55">
-        <v>1.000121661901575</v>
+        <v>0.0001216619015753651</v>
       </c>
       <c r="W55">
-        <v>1.000910746812386</v>
+        <v>0.0009107468123863427</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4893,7 +4893,7 @@
         <v>0.7937375811294829</v>
       </c>
       <c r="K56">
-        <v>44.25048510327142</v>
+        <v>-0.05749514896728586</v>
       </c>
       <c r="L56">
         <v>-0.01616875148904263</v>
@@ -4923,13 +4923,13 @@
         <v>-0.006250000000001421</v>
       </c>
       <c r="U56">
-        <v>0.9996963992956464</v>
+        <v>-0.0003036007043536459</v>
       </c>
       <c r="V56">
-        <v>0.9998783528982422</v>
+        <v>-0.0001216471017577714</v>
       </c>
       <c r="W56">
-        <v>0.9963603275705186</v>
+        <v>-0.003639672429481378</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4964,7 +4964,7 @@
         <v>1.03341573155596</v>
       </c>
       <c r="K57">
-        <v>50.82166502002989</v>
+        <v>0.008216650200298936</v>
       </c>
       <c r="L57">
         <v>-0.01357453599805292</v>
@@ -4994,13 +4994,13 @@
         <v>0.01250000000000284</v>
       </c>
       <c r="U57">
-        <v>0.9999088921282798</v>
+        <v>-9.11078717201752E-05</v>
       </c>
       <c r="V57">
-        <v>1.000060830950788</v>
+        <v>6.083095078790457E-05</v>
       </c>
       <c r="W57">
-        <v>1.00365296803653</v>
+        <v>0.003652968036529813</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5035,7 +5035,7 @@
         <v>1.03341573155596</v>
       </c>
       <c r="K58">
-        <v>50.82166502002989</v>
+        <v>0.008216650200298936</v>
       </c>
       <c r="L58">
         <v>-0.01065093539530425</v>
@@ -5065,13 +5065,13 @@
         <v>0.04687500000000711</v>
       </c>
       <c r="U58">
-        <v>0.9999088838268793</v>
+        <v>-9.111617312074216E-05</v>
       </c>
       <c r="V58">
-        <v>1.000182481751825</v>
+        <v>0.0001824817518247812</v>
       </c>
       <c r="W58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5106,7 +5106,7 @@
         <v>0.9690760227588666</v>
       </c>
       <c r="K59">
-        <v>49.21475918441671</v>
+        <v>-0.00785240815583288</v>
       </c>
       <c r="L59">
         <v>-0.008007005237100769</v>
@@ -5136,13 +5136,13 @@
         <v>0.05937499999999574</v>
       </c>
       <c r="U59">
-        <v>0.9999088755239658</v>
+        <v>-9.112447603421003E-05</v>
       </c>
       <c r="V59">
-        <v>1.000182448458311</v>
+        <v>0.0001824484583108354</v>
       </c>
       <c r="W59">
-        <v>0.9990900818926296</v>
+        <v>-0.0009099181073703999</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5177,7 +5177,7 @@
         <v>0.9690760227588665</v>
       </c>
       <c r="K60">
-        <v>49.21475918441671</v>
+        <v>-0.00785240815583288</v>
       </c>
       <c r="L60">
         <v>-0.005671849758653163</v>
@@ -5207,13 +5207,13 @@
         <v>0.0625</v>
       </c>
       <c r="U60">
-        <v>0.9999088672195389</v>
+        <v>-9.113278046113393E-05</v>
       </c>
       <c r="V60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5248,7 +5248,7 @@
         <v>0.8515825926199492</v>
       </c>
       <c r="K61">
-        <v>45.99214725900929</v>
+        <v>-0.04007852740990708</v>
       </c>
       <c r="L61">
         <v>-0.004315745274824226</v>
@@ -5278,13 +5278,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U61">
-        <v>0.9998480981893305</v>
+        <v>-0.0001519018106694858</v>
       </c>
       <c r="V61">
-        <v>1.000060805058981</v>
+        <v>6.080505898076183E-05</v>
       </c>
       <c r="W61">
-        <v>0.9981785063752276</v>
+        <v>-0.001821493624772352</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5319,7 +5319,7 @@
         <v>0.8515825926199492</v>
       </c>
       <c r="K62">
-        <v>45.99214725900929</v>
+        <v>-0.04007852740990708</v>
       </c>
       <c r="L62">
         <v>-0.003623570173647033</v>
@@ -5349,13 +5349,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U62">
-        <v>0.9998784600893318</v>
+        <v>-0.0001215399106682113</v>
       </c>
       <c r="V62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5390,7 +5390,7 @@
         <v>1.053094068193476</v>
       </c>
       <c r="K63">
-        <v>51.29302570729733</v>
+        <v>0.01293025707297335</v>
       </c>
       <c r="L63">
         <v>-0.002368838814385779</v>
@@ -5420,13 +5420,13 @@
         <v>0.04375000000000284</v>
       </c>
       <c r="U63">
-        <v>1.000030388671103</v>
+        <v>3.038867110327637E-05</v>
       </c>
       <c r="V63">
-        <v>1.000304006809753</v>
+        <v>0.0003040068097526216</v>
       </c>
       <c r="W63">
-        <v>1.002737226277372</v>
+        <v>0.002737226277372384</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5461,7 +5461,7 @@
         <v>0.9835513051076777</v>
       </c>
       <c r="K64">
-        <v>49.58537258779325</v>
+        <v>-0.004146274122067473</v>
       </c>
       <c r="L64">
         <v>-0.001176512824652194</v>
@@ -5491,13 +5491,13 @@
         <v>0.05000000000000426</v>
       </c>
       <c r="U64">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V64">
-        <v>1.00018234865062</v>
+        <v>0.0001823486506200567</v>
       </c>
       <c r="W64">
-        <v>0.9990900818926296</v>
+        <v>-0.0009099181073703999</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5532,7 +5532,7 @@
         <v>0.919626054757928</v>
       </c>
       <c r="K65">
-        <v>47.90652077671952</v>
+        <v>-0.02093479223280481</v>
       </c>
       <c r="L65">
         <v>-0.0004256205562477526</v>
@@ -5562,13 +5562,13 @@
         <v>0.03124999999999289</v>
       </c>
       <c r="U65">
-        <v>0.99996961225234</v>
+        <v>-3.038774765995456E-05</v>
       </c>
       <c r="V65">
-        <v>1.000243087207536</v>
+        <v>0.0002430872075356305</v>
       </c>
       <c r="W65">
-        <v>0.9990892531876139</v>
+        <v>-0.0009107468123861207</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5603,7 +5603,7 @@
         <v>0.9196260547579281</v>
       </c>
       <c r="K66">
-        <v>47.90652077671952</v>
+        <v>-0.02093479223280481</v>
       </c>
       <c r="L66">
         <v>1.152595129913323E-05</v>
@@ -5633,13 +5633,13 @@
         <v>0.006250000000001421</v>
       </c>
       <c r="U66">
-        <v>1.000030388671103</v>
+        <v>3.038867110327637E-05</v>
       </c>
       <c r="V66">
-        <v>1.000121514065253</v>
+        <v>0.00012151406525307</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5674,7 +5674,7 @@
         <v>0.9196260547579282</v>
       </c>
       <c r="K67">
-        <v>47.90652077671952</v>
+        <v>-0.02093479223280476</v>
       </c>
       <c r="L67">
         <v>0.0002306956071461691</v>
@@ -5704,13 +5704,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U67">
-        <v>0.9999392245046796</v>
+        <v>-6.07754953203532E-05</v>
       </c>
       <c r="V67">
-        <v>1.000060749650689</v>
+        <v>6.074965068947336E-05</v>
       </c>
       <c r="W67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5745,7 +5745,7 @@
         <v>0.919626054757928</v>
       </c>
       <c r="K68">
-        <v>47.90652077671952</v>
+        <v>-0.02093479223280481</v>
       </c>
       <c r="L68">
         <v>0.0003030040372896875</v>
@@ -5775,13 +5775,13 @@
         <v>-0.01562500000000711</v>
       </c>
       <c r="U68">
-        <v>0.9999392208107944</v>
+        <v>-6.077918920555092E-05</v>
       </c>
       <c r="V68">
-        <v>1.000060745960394</v>
+        <v>6.074596039362667E-05</v>
       </c>
       <c r="W68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5816,7 +5816,7 @@
         <v>0.9994220319209054</v>
       </c>
       <c r="K69">
-        <v>49.98554662122685</v>
+        <v>-0.0001445337877314934</v>
       </c>
       <c r="L69">
         <v>0.000612535200800233</v>
@@ -5846,13 +5846,13 @@
         <v>-0.009374999999998579</v>
       </c>
       <c r="U69">
-        <v>0.9999392171164599</v>
+        <v>-6.07828835400559E-05</v>
       </c>
       <c r="V69">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W69">
-        <v>1.000911577028259</v>
+        <v>0.0009115770282588365</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5887,7 +5887,7 @@
         <v>0.9219796458523146</v>
       </c>
       <c r="K70">
-        <v>47.97031268473484</v>
+        <v>-0.02029687315265166</v>
       </c>
       <c r="L70">
         <v>0.0007119182252294157</v>
@@ -5917,13 +5917,13 @@
         <v>0</v>
       </c>
       <c r="U70">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V70">
-        <v>0.9998785154589079</v>
+        <v>-0.0001214845410920651</v>
       </c>
       <c r="W70">
-        <v>0.9990892531876139</v>
+        <v>-0.0009107468123861207</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5958,7 +5958,7 @@
         <v>1.003545089199759</v>
       </c>
       <c r="K71">
-        <v>50.08847041224251</v>
+        <v>0.0008847041224250285</v>
       </c>
       <c r="L71">
         <v>0.001006962466479508</v>
@@ -5988,13 +5988,13 @@
         <v>-0.003124999999997158</v>
       </c>
       <c r="U71">
-        <v>1.000030393289162</v>
+        <v>3.039328916165651E-05</v>
       </c>
       <c r="V71">
-        <v>1.000182248952068</v>
+        <v>0.0001822489520684201</v>
       </c>
       <c r="W71">
-        <v>1.000911577028259</v>
+        <v>0.0009115770282588365</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6029,7 +6029,7 @@
         <v>1.089403450618134</v>
       </c>
       <c r="K72">
-        <v>52.13944919521609</v>
+        <v>0.02139449195216092</v>
       </c>
       <c r="L72">
         <v>0.001729956893954737</v>
@@ -6059,13 +6059,13 @@
         <v>-0.009374999999998579</v>
       </c>
       <c r="U72">
-        <v>1.000030392365438</v>
+        <v>3.039236543789237E-05</v>
       </c>
       <c r="V72">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W72">
-        <v>1.000910746812386</v>
+        <v>0.0009107468123863427</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6100,7 +6100,7 @@
         <v>1.179780673163779</v>
       </c>
       <c r="K73">
-        <v>54.12382482735847</v>
+        <v>0.04123824827358469</v>
       </c>
       <c r="L73">
         <v>0.002991692813711056</v>
@@ -6130,13 +6130,13 @@
         <v>0.006250000000008527</v>
       </c>
       <c r="U73">
-        <v>1.00012156576708</v>
+        <v>0.0001215657670798898</v>
       </c>
       <c r="V73">
-        <v>1.000060738581147</v>
+        <v>6.073858114685748E-05</v>
       </c>
       <c r="W73">
-        <v>1.00090991810737</v>
+        <v>0.0009099181073701779</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6171,7 +6171,7 @@
         <v>1.077293519328675</v>
       </c>
       <c r="K74">
-        <v>51.86043807987362</v>
+        <v>0.01860438079873628</v>
       </c>
       <c r="L74">
         <v>0.004156550872749023</v>
@@ -6201,13 +6201,13 @@
         <v>0.01874999999999716</v>
       </c>
       <c r="U74">
-        <v>1.00012155099064</v>
+        <v>0.0001215509906404844</v>
       </c>
       <c r="V74">
-        <v>1.000060734892195</v>
+        <v>6.073489219549089E-05</v>
       </c>
       <c r="W74">
-        <v>0.9990909090909091</v>
+        <v>-0.0009090909090908594</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6242,7 +6242,7 @@
         <v>1.168735273730335</v>
       </c>
       <c r="K75">
-        <v>53.89017681812547</v>
+        <v>0.03890176818125468</v>
       </c>
       <c r="L75">
         <v>0.005505140146055781</v>
@@ -6272,13 +6272,13 @@
         <v>0.03125</v>
       </c>
       <c r="U75">
-        <v>1.000060768108896</v>
+        <v>6.076810889643625E-05</v>
       </c>
       <c r="V75">
-        <v>1.000121462407385</v>
+        <v>0.0001214624073848647</v>
       </c>
       <c r="W75">
-        <v>1.00090991810737</v>
+        <v>0.0009099181073701779</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6313,7 +6313,7 @@
         <v>1.168735273730335</v>
       </c>
       <c r="K76">
-        <v>53.89017681812547</v>
+        <v>0.03890176818125468</v>
       </c>
       <c r="L76">
         <v>0.006858917700525739</v>
@@ -6343,13 +6343,13 @@
         <v>0.04375000000000284</v>
       </c>
       <c r="U76">
-        <v>1.000151911040895</v>
+        <v>0.0001519110408945146</v>
       </c>
       <c r="V76">
-        <v>1.000242895312121</v>
+        <v>0.0002428953121205168</v>
       </c>
       <c r="W76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6384,7 +6384,7 @@
         <v>0.9718072699524957</v>
       </c>
       <c r="K77">
-        <v>49.28510431832966</v>
+        <v>-0.007148956816703411</v>
       </c>
       <c r="L77">
         <v>0.007440811597984831</v>
@@ -6414,13 +6414,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U77">
-        <v>1.000060755186974</v>
+        <v>6.075518697423732E-05</v>
       </c>
       <c r="V77">
-        <v>1.000121418164157</v>
+        <v>0.0001214181641573386</v>
       </c>
       <c r="W77">
-        <v>0.9981818181818182</v>
+        <v>-0.00181818181818183</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6455,7 +6455,7 @@
         <v>0.9718072699524958</v>
       </c>
       <c r="K78">
-        <v>49.28510431832967</v>
+        <v>-0.007148956816703356</v>
       </c>
       <c r="L78">
         <v>0.007490946059783674</v>
@@ -6485,13 +6485,13 @@
         <v>0.03750000000000853</v>
       </c>
       <c r="U78">
-        <v>1.000121502992011</v>
+        <v>0.0001215029920109689</v>
       </c>
       <c r="V78">
-        <v>0.9999392982882118</v>
+        <v>-6.070171178818029E-05</v>
       </c>
       <c r="W78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6526,7 +6526,7 @@
         <v>0.9718072699524957</v>
       </c>
       <c r="K79">
-        <v>49.28510431832966</v>
+        <v>-0.007148956816703411</v>
       </c>
       <c r="L79">
         <v>0.00718851267038034</v>
@@ -6556,13 +6556,13 @@
         <v>0.04062499999999147</v>
       </c>
       <c r="U79">
-        <v>1.000091116173121</v>
+        <v>9.111617312074216E-05</v>
       </c>
       <c r="V79">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6597,7 +6597,7 @@
         <v>0.812190531254224</v>
       </c>
       <c r="K80">
-        <v>44.81816438429925</v>
+        <v>-0.05181835615700747</v>
       </c>
       <c r="L80">
         <v>0.006002149106173467</v>
@@ -6627,13 +6627,13 @@
         <v>0.02812499999999574</v>
       </c>
       <c r="U80">
-        <v>1.00009110787172</v>
+        <v>9.110787172006418E-05</v>
       </c>
       <c r="V80">
-        <v>0.9999392946032901</v>
+        <v>-6.07053967098814E-05</v>
       </c>
       <c r="W80">
-        <v>0.9981785063752276</v>
+        <v>-0.001821493624772352</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6668,7 +6668,7 @@
         <v>1.244420318160948</v>
       </c>
       <c r="K81">
-        <v>55.44506561857414</v>
+        <v>0.05445065618574141</v>
       </c>
       <c r="L81">
         <v>0.005992818829023939</v>
@@ -6698,13 +6698,13 @@
         <v>0.02187500000000142</v>
       </c>
       <c r="U81">
-        <v>1.000182199143664</v>
+        <v>0.0001821991436639081</v>
       </c>
       <c r="V81">
-        <v>1.000242836328315</v>
+        <v>0.0002428363283146773</v>
       </c>
       <c r="W81">
-        <v>1.00456204379562</v>
+        <v>0.004562043795620419</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6739,7 +6739,7 @@
         <v>1.335416062772897</v>
       </c>
       <c r="K82">
-        <v>57.18107724185663</v>
+        <v>0.07181077241856637</v>
       </c>
       <c r="L82">
         <v>0.007006838515825485</v>
@@ -6769,13 +6769,13 @@
         <v>0.02499999999999858</v>
       </c>
       <c r="U82">
-        <v>1.000182165953184</v>
+        <v>0.000182165953183544</v>
       </c>
       <c r="V82">
-        <v>1.000303471716436</v>
+        <v>0.0003034717164360767</v>
       </c>
       <c r="W82">
-        <v>1.000908265213442</v>
+        <v>0.0009082652134424496</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6810,7 +6810,7 @@
         <v>1.431201057101252</v>
       </c>
       <c r="K83">
-        <v>58.86806658465709</v>
+        <v>0.08868066584657086</v>
       </c>
       <c r="L83">
         <v>0.008882112774101508</v>
@@ -6840,13 +6840,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U83">
-        <v>1.000212488237258</v>
+        <v>0.0002124882372582793</v>
       </c>
       <c r="V83">
-        <v>1.000364055579152</v>
+        <v>0.0003640555791517563</v>
       </c>
       <c r="W83">
-        <v>1.000907441016334</v>
+        <v>0.0009074410163338875</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6881,7 +6881,7 @@
         <v>1.532027366920587</v>
       </c>
       <c r="K84">
-        <v>60.50595609414029</v>
+        <v>0.1050595609414029</v>
       </c>
       <c r="L84">
         <v>0.01145855827668713</v>
@@ -6911,13 +6911,13 @@
         <v>0.02812500000000284</v>
       </c>
       <c r="U84">
-        <v>1.000182094081942</v>
+        <v>0.0001820940819423633</v>
       </c>
       <c r="V84">
-        <v>1.00036392309092</v>
+        <v>0.0003639230909202595</v>
       </c>
       <c r="W84">
-        <v>1.00090661831369</v>
+        <v>0.0009066183136900996</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6952,7 +6952,7 @@
         <v>1.532027366920587</v>
       </c>
       <c r="K85">
-        <v>60.50595609414029</v>
+        <v>0.1050595609414029</v>
       </c>
       <c r="L85">
         <v>0.01425327320392487</v>
@@ -6982,13 +6982,13 @@
         <v>0.046875</v>
       </c>
       <c r="U85">
-        <v>1.000151717441437</v>
+        <v>0.0001517174414371603</v>
       </c>
       <c r="V85">
-        <v>1.000424422482265</v>
+        <v>0.0004244224822651521</v>
       </c>
       <c r="W85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7023,7 +7023,7 @@
         <v>1.755465172614372</v>
       </c>
       <c r="K86">
-        <v>63.70848704826108</v>
+        <v>0.1370848704826108</v>
       </c>
       <c r="L86">
         <v>0.01761266868604198</v>
@@ -7053,13 +7053,13 @@
         <v>0.06875000000000142</v>
       </c>
       <c r="U86">
-        <v>1.000333727738843</v>
+        <v>0.0003337277388428816</v>
       </c>
       <c r="V86">
-        <v>1.000484848484849</v>
+        <v>0.0004848484848485324</v>
       </c>
       <c r="W86">
-        <v>1.001811594202898</v>
+        <v>0.001811594202898448</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7094,7 +7094,7 @@
         <v>1.755465172614372</v>
       </c>
       <c r="K87">
-        <v>63.70848704826108</v>
+        <v>0.1370848704826109</v>
       </c>
       <c r="L87">
         <v>0.02103482991355998</v>
@@ -7124,13 +7124,13 @@
         <v>0.09375000000000711</v>
       </c>
       <c r="U87">
-        <v>1.000212301346597</v>
+        <v>0.0002123013465971102</v>
       </c>
       <c r="V87">
-        <v>1.000424036830628</v>
+        <v>0.0004240368306276388</v>
       </c>
       <c r="W87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7165,7 +7165,7 @@
         <v>1.280086236637063</v>
       </c>
       <c r="K88">
-        <v>56.14200972174997</v>
+        <v>0.06142009721749975</v>
       </c>
       <c r="L88">
         <v>0.02320486379509768</v>
@@ -7195,13 +7195,13 @@
         <v>0.1249999999999929</v>
       </c>
       <c r="U88">
-        <v>1.000121289305316</v>
+        <v>0.0001212893053155195</v>
       </c>
       <c r="V88">
-        <v>1.000181653042689</v>
+        <v>0.0001816530426885787</v>
       </c>
       <c r="W88">
-        <v>0.9972875226039783</v>
+        <v>-0.002712477396021651</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7236,7 +7236,7 @@
         <v>1.280086236637063</v>
       </c>
       <c r="K89">
-        <v>56.14200972174997</v>
+        <v>0.06142009721749975</v>
       </c>
       <c r="L89">
         <v>0.02439326711878544</v>
@@ -7266,13 +7266,13 @@
         <v>0.1281249999999901</v>
       </c>
       <c r="U89">
-        <v>1.000151593245005</v>
+        <v>0.0001515932450049107</v>
       </c>
       <c r="V89">
-        <v>1.000242160067805</v>
+        <v>0.0002421600678046421</v>
       </c>
       <c r="W89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7307,7 +7307,7 @@
         <v>1.280086236637063</v>
       </c>
       <c r="K90">
-        <v>56.14200972174999</v>
+        <v>0.06142009721749986</v>
       </c>
       <c r="L90">
         <v>0.02482229275954315</v>
@@ -7337,13 +7337,13 @@
         <v>0.1218750000000028</v>
       </c>
       <c r="U90">
-        <v>1.000151570267976</v>
+        <v>0.0001515702679764086</v>
       </c>
       <c r="V90">
-        <v>1.000181576080378</v>
+        <v>0.0001815760803776101</v>
       </c>
       <c r="W90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7378,7 +7378,7 @@
         <v>1.280086236637063</v>
       </c>
       <c r="K91">
-        <v>56.14200972174999</v>
+        <v>0.06142009721749986</v>
       </c>
       <c r="L91">
         <v>0.02467350683609402</v>
@@ -7408,13 +7408,13 @@
         <v>0.1124999999999972</v>
       </c>
       <c r="U91">
-        <v>1.000212166217076</v>
+        <v>0.000212166217076204</v>
       </c>
       <c r="V91">
-        <v>1.00018154311649</v>
+        <v>0.0001815431164902126</v>
       </c>
       <c r="W91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7449,7 +7449,7 @@
         <v>1.390909782265649</v>
       </c>
       <c r="K92">
-        <v>58.17491703712925</v>
+        <v>0.08174917037129248</v>
       </c>
       <c r="L92">
         <v>0.0244254338311234</v>
@@ -7479,13 +7479,13 @@
         <v>0.1000000000000014</v>
       </c>
       <c r="U92">
-        <v>1.000242424242424</v>
+        <v>0.0002424242424241552</v>
       </c>
       <c r="V92">
-        <v>1.000363020329138</v>
+        <v>0.0003630203291384859</v>
       </c>
       <c r="W92">
-        <v>1.00090661831369</v>
+        <v>0.0009066183136900996</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7520,7 +7520,7 @@
         <v>1.390909782265649</v>
       </c>
       <c r="K93">
-        <v>58.17491703712925</v>
+        <v>0.08174917037129259</v>
       </c>
       <c r="L93">
         <v>0.02404383680886957</v>
@@ -7550,13 +7550,13 @@
         <v>0.08125000000000426</v>
       </c>
       <c r="U93">
-        <v>1.000151478429472</v>
+        <v>0.0001514784294716076</v>
       </c>
       <c r="V93">
-        <v>1.000362888593202</v>
+        <v>0.0003628885932018822</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7591,7 +7591,7 @@
         <v>1.390909782265649</v>
       </c>
       <c r="K94">
-        <v>58.17491703712926</v>
+        <v>0.08174917037129259</v>
       </c>
       <c r="L94">
         <v>0.02351793281584558</v>
@@ -7621,13 +7621,13 @@
         <v>0.04999999999999716</v>
       </c>
       <c r="U94">
-        <v>1.000181746584679</v>
+        <v>0.0001817465846789545</v>
       </c>
       <c r="V94">
-        <v>1.000362756952841</v>
+        <v>0.000362756952841492</v>
       </c>
       <c r="W94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7662,7 +7662,7 @@
         <v>1.390909782265649</v>
       </c>
       <c r="K95">
-        <v>58.17491703712925</v>
+        <v>0.08174917037129259</v>
       </c>
       <c r="L95">
         <v>0.02285234992191412</v>
@@ -7692,13 +7692,13 @@
         <v>0.01874999999999716</v>
       </c>
       <c r="U95">
-        <v>1.000211999152003</v>
+        <v>0.0002119991520033171</v>
       </c>
       <c r="V95">
-        <v>1.000483500543938</v>
+        <v>0.0004835005439380868</v>
       </c>
       <c r="W95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7733,7 +7733,7 @@
         <v>1.093375532107022</v>
       </c>
       <c r="K96">
-        <v>52.23026233647236</v>
+        <v>0.02230262336472355</v>
       </c>
       <c r="L96">
         <v>0.021399656886073</v>
@@ -7763,13 +7763,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U96">
-        <v>1.000151395869921</v>
+        <v>0.0001513958699206341</v>
       </c>
       <c r="V96">
-        <v>1.000060408360517</v>
+        <v>6.040836051712795E-05</v>
       </c>
       <c r="W96">
-        <v>0.9981884057971014</v>
+        <v>-0.001811594202898559</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7804,7 +7804,7 @@
         <v>1.093375532107022</v>
       </c>
       <c r="K97">
-        <v>52.23026233647236</v>
+        <v>0.02230262336472355</v>
       </c>
       <c r="L97">
         <v>0.01948519957027397</v>
@@ -7834,13 +7834,13 @@
         <v>-0.01562499999999289</v>
       </c>
       <c r="U97">
-        <v>1.000151372952681</v>
+        <v>0.0001513729526809726</v>
       </c>
       <c r="V97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7875,7 +7875,7 @@
         <v>1.093375532107022</v>
       </c>
       <c r="K98">
-        <v>52.23026233647236</v>
+        <v>0.02230262336472355</v>
       </c>
       <c r="L98">
         <v>0.01734236747430852</v>
@@ -7905,13 +7905,13 @@
         <v>-0.02187500000000142</v>
       </c>
       <c r="U98">
-        <v>1.000151350042378</v>
+        <v>0.0001513500423779846</v>
       </c>
       <c r="V98">
-        <v>0.9999395952884326</v>
+        <v>-6.040471156742999E-05</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7946,7 +7946,7 @@
         <v>0.9721062197853466</v>
       </c>
       <c r="K99">
-        <v>49.29279214438841</v>
+        <v>-0.007072078556115913</v>
       </c>
       <c r="L99">
         <v>0.0148042017952729</v>
@@ -7976,13 +7976,13 @@
         <v>-0.02812499999999574</v>
       </c>
       <c r="U99">
-        <v>1.000090796283406</v>
+        <v>9.079628340558088E-05</v>
       </c>
       <c r="V99">
-        <v>0.9998187749184486</v>
+        <v>-0.0001812250815513838</v>
       </c>
       <c r="W99">
-        <v>0.999092558983666</v>
+        <v>-0.0009074410163339985</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8017,7 +8017,7 @@
         <v>0.870477698260599</v>
       </c>
       <c r="K100">
-        <v>46.53772130349785</v>
+        <v>-0.03462278696502152</v>
       </c>
       <c r="L100">
         <v>0.01180412416705805</v>
@@ -8047,13 +8047,13 @@
         <v>-0.04062499999999147</v>
       </c>
       <c r="U100">
-        <v>1.000090788040189</v>
+        <v>9.078804018880504E-05</v>
       </c>
       <c r="V100">
-        <v>0.999758322759954</v>
+        <v>-0.0002416772400459788</v>
       </c>
       <c r="W100">
-        <v>0.9990917347865578</v>
+        <v>-0.0009082652134422275</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8088,7 +8088,7 @@
         <v>0.9805247166844741</v>
       </c>
       <c r="K101">
-        <v>49.50833021291123</v>
+        <v>-0.004916697870887665</v>
       </c>
       <c r="L101">
         <v>0.00900322583231724</v>
@@ -8118,13 +8118,13 @@
         <v>-0.04999999999999716</v>
       </c>
       <c r="U101">
-        <v>1.000090779798469</v>
+        <v>9.077979846883188E-05</v>
       </c>
       <c r="V101">
-        <v>0.9996978304224332</v>
+        <v>-0.000302169577566791</v>
       </c>
       <c r="W101">
-        <v>1.000909090909091</v>
+        <v>0.0009090909090907484</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8159,7 +8159,7 @@
         <v>0.7960885634112966</v>
       </c>
       <c r="K102">
-        <v>44.32345818734528</v>
+        <v>-0.05676541812654717</v>
       </c>
       <c r="L102">
         <v>0.005807739629641405</v>
@@ -8189,13 +8189,13 @@
         <v>-0.05937499999999574</v>
       </c>
       <c r="U102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V102">
-        <v>0.9995768347237335</v>
+        <v>-0.0004231652762665128</v>
       </c>
       <c r="W102">
-        <v>0.9981834695731154</v>
+        <v>-0.001816530426884566</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8230,7 +8230,7 @@
         <v>0.7243755920685154</v>
       </c>
       <c r="K103">
-        <v>42.00799381529018</v>
+        <v>-0.07992006184709821</v>
       </c>
       <c r="L103">
         <v>0.002225315304576876</v>
@@ -8260,13 +8260,13 @@
         <v>-0.07187500000000568</v>
       </c>
       <c r="U103">
-        <v>0.9999394856278366</v>
+        <v>-6.051437216336719E-05</v>
       </c>
       <c r="V103">
-        <v>0.9996976111279106</v>
+        <v>-0.000302388872089443</v>
       </c>
       <c r="W103">
-        <v>0.9990900818926296</v>
+        <v>-0.0009099181073703999</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8301,7 +8301,7 @@
         <v>0.9140211710279343</v>
       </c>
       <c r="K104">
-        <v>47.75397393002999</v>
+        <v>-0.02246026069970014</v>
       </c>
       <c r="L104">
         <v>-0.0007104727376750847</v>
@@ -8331,13 +8331,13 @@
         <v>-0.07500000000000284</v>
       </c>
       <c r="U104">
-        <v>1.000030259017187</v>
+        <v>3.025901718700652E-05</v>
       </c>
       <c r="V104">
-        <v>0.9998185117967332</v>
+        <v>-0.0001814882032667997</v>
       </c>
       <c r="W104">
-        <v>1.001821493624772</v>
+        <v>0.001821493624772241</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8372,7 +8372,7 @@
         <v>0.7619211871724</v>
       </c>
       <c r="K105">
-        <v>43.24377235029229</v>
+        <v>-0.06756227649707713</v>
       </c>
       <c r="L105">
         <v>-0.003725974904463224</v>
@@ -8402,13 +8402,13 @@
         <v>-0.08437500000000142</v>
       </c>
       <c r="U105">
-        <v>0.9999394837967865</v>
+        <v>-6.051620321345652E-05</v>
       </c>
       <c r="V105">
-        <v>0.9996974647546439</v>
+        <v>-0.0003025352453560615</v>
       </c>
       <c r="W105">
-        <v>0.9981818181818182</v>
+        <v>-0.00181818181818183</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8443,7 +8443,7 @@
         <v>0.7005637809353588</v>
       </c>
       <c r="K106">
-        <v>41.19597211167397</v>
+        <v>-0.08804027888326033</v>
       </c>
       <c r="L106">
         <v>-0.006914777185176114</v>
@@ -8473,13 +8473,13 @@
         <v>-0.09687500000000426</v>
       </c>
       <c r="U106">
-        <v>0.9999092202015313</v>
+        <v>-9.077979846872086E-05</v>
       </c>
       <c r="V106">
-        <v>0.9996368478392446</v>
+        <v>-0.0003631521607554422</v>
       </c>
       <c r="W106">
-        <v>0.9990892531876139</v>
+        <v>-0.0009107468123861207</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8514,7 +8514,7 @@
         <v>0.7853320542092688</v>
       </c>
       <c r="K107">
-        <v>43.98801065368738</v>
+        <v>-0.06011989346312624</v>
       </c>
       <c r="L107">
         <v>-0.009650100051332232</v>
@@ -8544,13 +8544,13 @@
         <v>-0.1000000000000014</v>
       </c>
       <c r="U107">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V107">
-        <v>0.999636715911843</v>
+        <v>-0.000363284088157001</v>
       </c>
       <c r="W107">
-        <v>1.000911577028259</v>
+        <v>0.0009115770282588365</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8585,7 +8585,7 @@
         <v>0.66640562454111</v>
       </c>
       <c r="K108">
-        <v>39.99060101136078</v>
+        <v>-0.1000939898863922</v>
       </c>
       <c r="L108">
         <v>-0.01256267639676053</v>
@@ -8615,13 +8615,13 @@
         <v>-0.1000000000000014</v>
       </c>
       <c r="U108">
-        <v>0.9999394746398743</v>
+        <v>-6.052536012568499E-05</v>
       </c>
       <c r="V108">
-        <v>0.9995154451847366</v>
+        <v>-0.0004845548152634382</v>
       </c>
       <c r="W108">
-        <v>0.9981785063752276</v>
+        <v>-0.001821493624772352</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8656,7 +8656,7 @@
         <v>0.6664056245411099</v>
       </c>
       <c r="K109">
-        <v>39.99060101136077</v>
+        <v>-0.1000939898863923</v>
       </c>
       <c r="L109">
         <v>-0.01535191600578545</v>
@@ -8686,13 +8686,13 @@
         <v>-0.1062500000000099</v>
       </c>
       <c r="U109">
-        <v>0.9999394709763331</v>
+        <v>-6.052902366693313E-05</v>
       </c>
       <c r="V109">
-        <v>0.9995152102775422</v>
+        <v>-0.0004847897224578013</v>
       </c>
       <c r="W109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8727,7 +8727,7 @@
         <v>0.9180974469985341</v>
       </c>
       <c r="K110">
-        <v>47.86500542165811</v>
+        <v>-0.02134994578341887</v>
       </c>
       <c r="L110">
         <v>-0.01684156704726046</v>
@@ -8757,13 +8757,13 @@
         <v>-0.09062500000000284</v>
       </c>
       <c r="U110">
-        <v>1.000090799031477</v>
+        <v>9.079903147712898E-05</v>
       </c>
       <c r="V110">
-        <v>0.9996968594640474</v>
+        <v>-0.0003031405359525952</v>
       </c>
       <c r="W110">
-        <v>1.002737226277372</v>
+        <v>0.002737226277372384</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8798,7 +8798,7 @@
         <v>1.006410367159025</v>
       </c>
       <c r="K111">
-        <v>50.15974716000153</v>
+        <v>0.001597471600015332</v>
       </c>
       <c r="L111">
         <v>-0.01705695239065764</v>
@@ -8828,13 +8828,13 @@
         <v>-0.06562499999999716</v>
       </c>
       <c r="U111">
-        <v>0.9999697364040796</v>
+        <v>-3.026359592039896E-05</v>
       </c>
       <c r="V111">
-        <v>0.9998787070167992</v>
+        <v>-0.0001212929832008491</v>
       </c>
       <c r="W111">
-        <v>1.00090991810737</v>
+        <v>0.0009099181073701779</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8869,7 +8869,7 @@
         <v>0.8486312088569419</v>
       </c>
       <c r="K112">
-        <v>45.90592243553398</v>
+        <v>-0.0409407756446602</v>
       </c>
       <c r="L112">
         <v>-0.0170856954217703</v>
@@ -8899,13 +8899,13 @@
         <v>-0.06562499999999716</v>
       </c>
       <c r="U112">
-        <v>0.999878941952666</v>
+        <v>-0.0001210580473339773</v>
       </c>
       <c r="V112">
-        <v>0.9997573846060532</v>
+        <v>-0.0002426153939467657</v>
       </c>
       <c r="W112">
-        <v>0.9981818181818182</v>
+        <v>-0.00181818181818183</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8940,7 +8940,7 @@
         <v>0.8486312088569419</v>
       </c>
       <c r="K113">
-        <v>45.90592243553398</v>
+        <v>-0.0409407756446602</v>
       </c>
       <c r="L113">
         <v>-0.01693742262428291</v>
@@ -8970,13 +8970,13 @@
         <v>-0.05312500000000853</v>
       </c>
       <c r="U113">
-        <v>0.9998486591198016</v>
+        <v>-0.000151340880198414</v>
       </c>
       <c r="V113">
-        <v>0.9997573257295395</v>
+        <v>-0.0002426742704605411</v>
       </c>
       <c r="W113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9011,7 +9011,7 @@
         <v>1.022342209697266</v>
       </c>
       <c r="K114">
-        <v>50.5523844972956</v>
+        <v>0.005523844972955994</v>
       </c>
       <c r="L114">
         <v>-0.0159680588193352</v>
@@ -9041,13 +9041,13 @@
         <v>-0.02812500000000284</v>
       </c>
       <c r="U114">
-        <v>0.999878908969818</v>
+        <v>-0.0001210910301819856</v>
       </c>
       <c r="V114">
-        <v>0.9999393167061109</v>
+        <v>-6.068329388908555E-05</v>
       </c>
       <c r="W114">
-        <v>1.001821493624772</v>
+        <v>0.001821493624772241</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9082,7 +9082,7 @@
         <v>0.9367024612579493</v>
       </c>
       <c r="K115">
-        <v>48.36584245623003</v>
+        <v>-0.01634157543769965</v>
       </c>
       <c r="L115">
         <v>-0.01483546044134287</v>
@@ -9112,13 +9112,13 @@
         <v>-0.01562500000000711</v>
       </c>
       <c r="U115">
-        <v>0.9998486178812559</v>
+        <v>-0.0001513821187441033</v>
       </c>
       <c r="V115">
-        <v>0.9999393130234251</v>
+        <v>-6.068697657490851E-05</v>
       </c>
       <c r="W115">
-        <v>0.9990909090909091</v>
+        <v>-0.0009090909090908594</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9153,7 +9153,7 @@
         <v>0.8607996972263221</v>
       </c>
       <c r="K116">
-        <v>46.25966451463939</v>
+        <v>-0.03740335485360613</v>
       </c>
       <c r="L116">
         <v>-0.01395299399052874</v>
@@ -9183,13 +9183,13 @@
         <v>0.003125000000004263</v>
       </c>
       <c r="U116">
-        <v>0.9997577519379844</v>
+        <v>-0.0002422480620155598</v>
       </c>
       <c r="V116">
-        <v>0.9998179280208775</v>
+        <v>-0.0001820719791224557</v>
       </c>
       <c r="W116">
-        <v>0.9990900818926296</v>
+        <v>-0.0009099181073703999</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9224,7 +9224,7 @@
         <v>1.031393134638191</v>
       </c>
       <c r="K117">
-        <v>50.77269963413021</v>
+        <v>0.007726996341302028</v>
       </c>
       <c r="L117">
         <v>-0.01256559381614503</v>
@@ -9254,13 +9254,13 @@
         <v>0.03125000000000711</v>
       </c>
       <c r="U117">
-        <v>0.9998182699297311</v>
+        <v>-0.0001817300702688929</v>
       </c>
       <c r="V117">
-        <v>1.000060701711788</v>
+        <v>6.070171178840233E-05</v>
       </c>
       <c r="W117">
-        <v>1.001821493624772</v>
+        <v>0.001821493624772241</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9295,7 +9295,7 @@
         <v>0.8743790969981843</v>
       </c>
       <c r="K118">
-        <v>46.64899957529943</v>
+        <v>-0.03351000424700568</v>
       </c>
       <c r="L118">
         <v>-0.01157680067535091</v>
@@ -9325,13 +9325,13 @@
         <v>0.02812499999999574</v>
       </c>
       <c r="U118">
-        <v>0.9998485307482581</v>
+        <v>-0.0001514692517419203</v>
       </c>
       <c r="V118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W118">
-        <v>0.9981818181818182</v>
+        <v>-0.00181818181818183</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9366,7 +9366,7 @@
         <v>0.8743790969981843</v>
       </c>
       <c r="K119">
-        <v>46.64899957529943</v>
+        <v>-0.03351000424700568</v>
       </c>
       <c r="L119">
         <v>-0.01085045461007837</v>
@@ -9396,13 +9396,13 @@
         <v>0.01562500000000711</v>
       </c>
       <c r="U119">
-        <v>0.9998485078018482</v>
+        <v>-0.0001514921981518036</v>
       </c>
       <c r="V119">
-        <v>0.9998786039453718</v>
+        <v>-0.0001213960546282422</v>
       </c>
       <c r="W119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9437,7 +9437,7 @@
         <v>0.8063693656114038</v>
       </c>
       <c r="K120">
-        <v>44.64033663117793</v>
+        <v>-0.05359663368822071</v>
       </c>
       <c r="L120">
         <v>-0.01062106966174411</v>
@@ -9467,13 +9467,13 @@
         <v>0.01874999999999716</v>
       </c>
       <c r="U120">
-        <v>0.9998181818181818</v>
+        <v>-0.0001818181818181719</v>
       </c>
       <c r="V120">
-        <v>0.9999392946032903</v>
+        <v>-6.070539670965935E-05</v>
       </c>
       <c r="W120">
-        <v>0.9990892531876139</v>
+        <v>-0.0009107468123861207</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9508,7 +9508,7 @@
         <v>0.8882436821169388</v>
       </c>
       <c r="K121">
-        <v>47.04073370027725</v>
+        <v>-0.02959266299722751</v>
       </c>
       <c r="L121">
         <v>-0.01033772808748827</v>
@@ -9538,13 +9538,13 @@
         <v>0.01874999999999716</v>
       </c>
       <c r="U121">
-        <v>0.9998484572952657</v>
+        <v>-0.0001515427047342754</v>
       </c>
       <c r="V121">
-        <v>1.000060709082079</v>
+        <v>6.07090820785583E-05</v>
       </c>
       <c r="W121">
-        <v>1.000911577028259</v>
+        <v>0.0009115770282588365</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9579,7 +9579,7 @@
         <v>1.060610664233867</v>
       </c>
       <c r="K122">
-        <v>51.47069665526559</v>
+        <v>0.01470696655265591</v>
       </c>
       <c r="L122">
         <v>-0.009339767913756937</v>
@@ -9609,13 +9609,13 @@
         <v>0.009374999999998579</v>
       </c>
       <c r="U122">
-        <v>0.999878747461275</v>
+        <v>-0.0001212525387249697</v>
       </c>
       <c r="V122">
-        <v>1.00012141079342</v>
+        <v>0.0001214107934195408</v>
       </c>
       <c r="W122">
-        <v>1.001821493624772</v>
+        <v>0.001821493624772241</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9650,7 +9650,7 @@
         <v>0.8337095995459947</v>
       </c>
       <c r="K123">
-        <v>45.46573785469693</v>
+        <v>-0.04534262145303075</v>
       </c>
       <c r="L123">
         <v>-0.008931892086000679</v>
@@ -9680,13 +9680,13 @@
         <v>0</v>
       </c>
       <c r="U123">
-        <v>0.9997877823252994</v>
+        <v>-0.0002122176747005877</v>
       </c>
       <c r="V123">
-        <v>1.000060698027314</v>
+        <v>6.069802731412111E-05</v>
       </c>
       <c r="W123">
-        <v>0.9972727272727273</v>
+        <v>-0.002727272727272689</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9721,7 +9721,7 @@
         <v>0.7248833190927365</v>
       </c>
       <c r="K124">
-        <v>42.02506401847602</v>
+        <v>-0.07974935981523984</v>
       </c>
       <c r="L124">
         <v>-0.009537609482292977</v>
@@ -9751,13 +9751,13 @@
         <v>-0.01562500000000711</v>
       </c>
       <c r="U124">
-        <v>0.9997270907877979</v>
+        <v>-0.0002729092122021326</v>
       </c>
       <c r="V124">
-        <v>0.9999393056567127</v>
+        <v>-6.069434328725976E-05</v>
       </c>
       <c r="W124">
-        <v>0.9981768459434822</v>
+        <v>-0.001823154056517784</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9792,7 +9792,7 @@
         <v>0.7935846867433283</v>
       </c>
       <c r="K125">
-        <v>44.24573272780705</v>
+        <v>-0.05754267272192953</v>
       </c>
       <c r="L125">
         <v>-0.01035312494322838</v>
@@ -9822,13 +9822,13 @@
         <v>-0.04062499999999858</v>
       </c>
       <c r="U125">
-        <v>0.9997573478115804</v>
+        <v>-0.0002426521884195676</v>
       </c>
       <c r="V125">
-        <v>0.9998179059180577</v>
+        <v>-0.0001820940819422523</v>
       </c>
       <c r="W125">
-        <v>1.000913242009132</v>
+        <v>0.0009132420091324533</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9863,7 +9863,7 @@
         <v>0.9382191449551107</v>
       </c>
       <c r="K126">
-        <v>48.40624690954851</v>
+        <v>-0.01593753090451494</v>
       </c>
       <c r="L126">
         <v>-0.01054366294674126</v>
@@ -9893,13 +9893,13 @@
         <v>-0.03750000000000142</v>
       </c>
       <c r="U126">
-        <v>0.9998786444586027</v>
+        <v>-0.00012135554139725</v>
       </c>
       <c r="V126">
-        <v>0.9998785818358427</v>
+        <v>-0.0001214181641573386</v>
       </c>
       <c r="W126">
-        <v>1.001824817518248</v>
+        <v>0.001824817518248256</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9934,7 +9934,7 @@
         <v>0.9382191449551107</v>
       </c>
       <c r="K127">
-        <v>48.40624690954851</v>
+        <v>-0.01593753090451494</v>
       </c>
       <c r="L127">
         <v>-0.01030497209234116</v>
@@ -9964,13 +9964,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U127">
-        <v>0.9998786297296476</v>
+        <v>-0.0001213702703524167</v>
       </c>
       <c r="V127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10005,7 +10005,7 @@
         <v>0.8086285115361317</v>
       </c>
       <c r="K128">
-        <v>44.70948602094828</v>
+        <v>-0.05290513979051714</v>
       </c>
       <c r="L128">
         <v>-0.01044661660352144</v>
@@ -10035,13 +10035,13 @@
         <v>-0.03125000000000711</v>
       </c>
       <c r="U128">
-        <v>0.9998179224956757</v>
+        <v>-0.0001820775043243072</v>
       </c>
       <c r="V128">
-        <v>0.9998785670916819</v>
+        <v>-0.0001214329083181198</v>
       </c>
       <c r="W128">
-        <v>0.9981785063752276</v>
+        <v>-0.001821493624772352</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10076,7 +10076,7 @@
         <v>1.026719125769664</v>
       </c>
       <c r="K129">
-        <v>50.65917189584712</v>
+        <v>0.006591718958471215</v>
       </c>
       <c r="L129">
         <v>-0.009777550758231683</v>
@@ -10106,13 +10106,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U129">
-        <v>0.9999392964458069</v>
+        <v>-6.07035541930756E-05</v>
       </c>
       <c r="V129">
-        <v>0.9999392761719698</v>
+        <v>-6.072382803024023E-05</v>
       </c>
       <c r="W129">
-        <v>1.002737226277372</v>
+        <v>0.002737226277372384</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10147,7 +10147,7 @@
         <v>1.103242148307738</v>
       </c>
       <c r="K130">
-        <v>52.45435715499536</v>
+        <v>0.02454357154995357</v>
       </c>
       <c r="L130">
         <v>-0.008292716777289393</v>
@@ -10177,13 +10177,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V130">
-        <v>1.000060727515637</v>
+        <v>6.072751563745982E-05</v>
       </c>
       <c r="W130">
-        <v>1.00090991810737</v>
+        <v>0.0009099181073701779</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10218,7 +10218,7 @@
         <v>1.021000033979732</v>
       </c>
       <c r="K131">
-        <v>50.519545611743</v>
+        <v>0.005195456117429997</v>
       </c>
       <c r="L131">
         <v>-0.006709319036169573</v>
@@ -10248,13 +10248,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U131">
-        <v>0.9999392927606617</v>
+        <v>-6.070723933826461E-05</v>
       </c>
       <c r="V131">
-        <v>1.00006072382803</v>
+        <v>6.072382803012921E-05</v>
       </c>
       <c r="W131">
-        <v>0.9990909090909091</v>
+        <v>-0.0009090909090908594</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10289,7 +10289,7 @@
         <v>1.021000033979732</v>
       </c>
       <c r="K132">
-        <v>50.519545611743</v>
+        <v>0.005195456117429997</v>
       </c>
       <c r="L132">
         <v>-0.005142615556297783</v>
@@ -10319,13 +10319,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V132">
-        <v>0.9999392798591293</v>
+        <v>-6.072014087066258E-05</v>
       </c>
       <c r="W132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10360,7 +10360,7 @@
         <v>1.103599304343998</v>
       </c>
       <c r="K133">
-        <v>52.46242961123971</v>
+        <v>0.02462429611239714</v>
       </c>
       <c r="L133">
         <v>-0.003335598986568163</v>
@@ -10390,13 +10390,13 @@
         <v>0.03124999999999289</v>
       </c>
       <c r="U133">
-        <v>1.000060710924931</v>
+        <v>6.071092493087349E-05</v>
       </c>
       <c r="V133">
-        <v>1.00012144765606</v>
+        <v>0.0001214476560600364</v>
       </c>
       <c r="W133">
-        <v>1.00090991810737</v>
+        <v>0.0009099181073701779</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10431,7 +10431,7 @@
         <v>1.190545904727436</v>
       </c>
       <c r="K134">
-        <v>54.34927897005531</v>
+        <v>0.04349278970055304</v>
       </c>
       <c r="L134">
         <v>-0.001154437836843848</v>
@@ -10461,13 +10461,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U134">
-        <v>1.000030353619669</v>
+        <v>3.035361966907679E-05</v>
       </c>
       <c r="V134">
-        <v>1.000182149362477</v>
+        <v>0.0001821493624771797</v>
       </c>
       <c r="W134">
-        <v>1.000909090909091</v>
+        <v>0.0009090909090907484</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10502,7 +10502,7 @@
         <v>0.9340778263289408</v>
       </c>
       <c r="K135">
-        <v>48.29577246650447</v>
+        <v>-0.01704227533495534</v>
       </c>
       <c r="L135">
         <v>0.0001240105082618245</v>
@@ -10532,13 +10532,13 @@
         <v>0.04062499999999858</v>
       </c>
       <c r="U135">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V135">
-        <v>1.00006070539671</v>
+        <v>6.070539670965935E-05</v>
       </c>
       <c r="W135">
-        <v>0.9972752043596731</v>
+        <v>-0.002724795640326905</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10573,7 +10573,7 @@
         <v>1.085250156737608</v>
       </c>
       <c r="K136">
-        <v>52.04412301474137</v>
+        <v>0.02044123014741372</v>
       </c>
       <c r="L136">
         <v>0.001436642903090988</v>
@@ -10603,13 +10603,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U136">
-        <v>1.000091058095065</v>
+        <v>9.105809506460005E-05</v>
       </c>
       <c r="V136">
-        <v>1.000121403423577</v>
+        <v>0.0001214034235765826</v>
       </c>
       <c r="W136">
-        <v>1.001821493624772</v>
+        <v>0.001821493624772241</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10644,7 +10644,7 @@
         <v>1.085250156737608</v>
       </c>
       <c r="K137">
-        <v>52.04412301474137</v>
+        <v>0.02044123014741372</v>
       </c>
       <c r="L137">
         <v>0.002681062990912327</v>
@@ -10674,13 +10674,13 @@
         <v>0.05624999999999858</v>
       </c>
       <c r="U137">
-        <v>1.000060699869495</v>
+        <v>6.06998694954175E-05</v>
       </c>
       <c r="V137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10715,7 +10715,7 @@
         <v>0.9295472968107796</v>
       </c>
       <c r="K138">
-        <v>48.17437221399893</v>
+        <v>-0.01825627786001072</v>
       </c>
       <c r="L138">
         <v>0.00313201327796576</v>
@@ -10745,13 +10745,13 @@
         <v>0.05000000000000426</v>
       </c>
       <c r="U138">
-        <v>1.000060696185245</v>
+        <v>6.069618524451315E-05</v>
       </c>
       <c r="V138">
-        <v>1.000060694343287</v>
+        <v>6.069434328725976E-05</v>
       </c>
       <c r="W138">
-        <v>0.9981818181818182</v>
+        <v>-0.00181818181818183</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10786,7 +10786,7 @@
         <v>1.005058802740484</v>
       </c>
       <c r="K139">
-        <v>50.12615098204527</v>
+        <v>0.0012615098204527</v>
       </c>
       <c r="L139">
         <v>0.003393643019554841</v>
@@ -10816,13 +10816,13 @@
         <v>0.04375000000000284</v>
       </c>
       <c r="U139">
-        <v>1.000091038752162</v>
+        <v>9.103875216220914E-05</v>
       </c>
       <c r="V139">
-        <v>1.00024276263883</v>
+        <v>0.0002427626388299409</v>
       </c>
       <c r="W139">
-        <v>1.000910746812386</v>
+        <v>0.0009107468123863427</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10857,7 +10857,7 @@
         <v>1.005058802740484</v>
       </c>
       <c r="K140">
-        <v>50.12615098204527</v>
+        <v>0.0012615098204527</v>
       </c>
       <c r="L140">
         <v>0.003511545267749224</v>
@@ -10887,13 +10887,13 @@
         <v>0.03125</v>
       </c>
       <c r="U140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V140">
-        <v>1.000182027789576</v>
+        <v>0.0001820277895761002</v>
       </c>
       <c r="W140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10928,7 +10928,7 @@
         <v>1.088728061388345</v>
       </c>
       <c r="K141">
-        <v>52.12397350877185</v>
+        <v>0.02123973508771859</v>
       </c>
       <c r="L141">
         <v>0.003853553074652373</v>
@@ -10958,13 +10958,13 @@
         <v>0.01874999999999716</v>
       </c>
       <c r="U141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V141">
-        <v>1.000121329774327</v>
+        <v>0.0001213297743265507</v>
       </c>
       <c r="W141">
-        <v>1.00090991810737</v>
+        <v>0.0009099181073701779</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10999,7 +10999,7 @@
         <v>0.8611864794183515</v>
       </c>
       <c r="K142">
-        <v>46.27083255448348</v>
+        <v>-0.03729167445516524</v>
       </c>
       <c r="L142">
         <v>0.003301061559135393</v>
@@ -11029,13 +11029,13 @@
         <v>-0.003124999999997158</v>
       </c>
       <c r="U142">
-        <v>0.9999696565117127</v>
+        <v>-3.034348828734323E-05</v>
       </c>
       <c r="V142">
-        <v>0.9999393424724008</v>
+        <v>-6.065752759920606E-05</v>
       </c>
       <c r="W142">
-        <v>0.9972727272727273</v>
+        <v>-0.002727272727272689</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11070,7 +11070,7 @@
         <v>1.081183982192206</v>
       </c>
       <c r="K143">
-        <v>51.95042780664426</v>
+        <v>0.01950427806644262</v>
       </c>
       <c r="L143">
         <v>0.003224300913766099</v>
@@ -11100,13 +11100,13 @@
         <v>0.003125000000004263</v>
       </c>
       <c r="U143">
-        <v>1.000060688818085</v>
+        <v>6.068881808518611E-05</v>
       </c>
       <c r="V143">
-        <v>1.000242644828632</v>
+        <v>0.0002426448286318994</v>
       </c>
       <c r="W143">
-        <v>1.002734731084777</v>
+        <v>0.002734731084776731</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11141,7 +11141,7 @@
         <v>0.93658936990842</v>
       </c>
       <c r="K144">
-        <v>48.3628271672642</v>
+        <v>-0.016371728327358</v>
       </c>
       <c r="L144">
         <v>0.002765967700327747</v>
@@ -11171,13 +11171,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U144">
-        <v>0.9999393148648239</v>
+        <v>-6.06851351760973E-05</v>
       </c>
       <c r="V144">
-        <v>0.9999393535083997</v>
+        <v>-6.064649160031355E-05</v>
       </c>
       <c r="W144">
-        <v>0.9981818181818182</v>
+        <v>-0.00181818181818183</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11212,7 +11212,7 @@
         <v>0.8749998411285581</v>
       </c>
       <c r="K145">
-        <v>46.66666214765638</v>
+        <v>-0.03333337852343621</v>
       </c>
       <c r="L145">
         <v>0.001764201582701828</v>
@@ -11242,13 +11242,13 @@
         <v>-0.02812499999999574</v>
       </c>
       <c r="U145">
-        <v>0.9999393111819147</v>
+        <v>-6.068881808529714E-05</v>
       </c>
       <c r="V145">
-        <v>0.9998180494905384</v>
+        <v>-0.0001819505094615703</v>
       </c>
       <c r="W145">
-        <v>0.9990892531876139</v>
+        <v>-0.0009107468123861207</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11283,7 +11283,7 @@
         <v>0.9442202326994228</v>
       </c>
       <c r="K146">
-        <v>48.56549771567981</v>
+        <v>-0.01434502284320188</v>
       </c>
       <c r="L146">
         <v>0.000822089989204513</v>
@@ -11313,13 +11313,13 @@
         <v>-0.02187500000000853</v>
       </c>
       <c r="U146">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V146">
-        <v>0.999939338792842</v>
+        <v>-6.066120715797485E-05</v>
       </c>
       <c r="W146">
-        <v>1.000911577028259</v>
+        <v>0.0009115770282588365</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11354,7 +11354,7 @@
         <v>0.9442202326994227</v>
       </c>
       <c r="K147">
-        <v>48.5654977156798</v>
+        <v>-0.01434502284320194</v>
       </c>
       <c r="L147">
         <v>-2.684925153808993E-05</v>
@@ -11384,13 +11384,13 @@
         <v>-0.02499999999999858</v>
       </c>
       <c r="U147">
-        <v>0.9999393074985585</v>
+        <v>-6.069250144147276E-05</v>
       </c>
       <c r="V147">
-        <v>0.9999393351128366</v>
+        <v>-6.066488716338636E-05</v>
       </c>
       <c r="W147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11425,7 +11425,7 @@
         <v>0.7225471250128136</v>
       </c>
       <c r="K148">
-        <v>41.94643586354357</v>
+        <v>-0.08053564136456431</v>
       </c>
       <c r="L148">
         <v>-0.002090869895406543</v>
@@ -11455,13 +11455,13 @@
         <v>-0.04062499999999147</v>
       </c>
       <c r="U148">
-        <v>0.9998786076295104</v>
+        <v>-0.0001213923704895814</v>
       </c>
       <c r="V148">
-        <v>0.9996359885943091</v>
+        <v>-0.0003640114056908672</v>
       </c>
       <c r="W148">
-        <v>0.9963570127504554</v>
+        <v>-0.003642987249544594</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11496,7 +11496,7 @@
         <v>0.8461094599816499</v>
       </c>
       <c r="K149">
-        <v>45.83203099940022</v>
+        <v>-0.04167969000599775</v>
       </c>
       <c r="L149">
         <v>-0.004089113744964348</v>
@@ -11526,13 +11526,13 @@
         <v>-0.05312500000000142</v>
       </c>
       <c r="U149">
-        <v>0.9999392964458069</v>
+        <v>-6.07035541930756E-05</v>
       </c>
       <c r="V149">
-        <v>0.9996965467014628</v>
+        <v>-0.000303453298537204</v>
       </c>
       <c r="W149">
-        <v>1.001828153564899</v>
+        <v>0.001828153564899404</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11567,7 +11567,7 @@
         <v>0.7079830775846239</v>
       </c>
       <c r="K150">
-        <v>41.45141054827261</v>
+        <v>-0.08548589451727395</v>
       </c>
       <c r="L150">
         <v>-0.006899775189686839</v>
@@ -11597,13 +11597,13 @@
         <v>-0.05312500000000142</v>
       </c>
       <c r="U150">
-        <v>0.9998785855213234</v>
+        <v>-0.0001214144786766402</v>
       </c>
       <c r="V150">
-        <v>0.9996964545896067</v>
+        <v>-0.0003035454103933466</v>
       </c>
       <c r="W150">
-        <v>0.9972627737226277</v>
+        <v>-0.002737226277372273</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11638,7 +11638,7 @@
         <v>0.7079830775846239</v>
       </c>
       <c r="K151">
-        <v>41.45141054827261</v>
+        <v>-0.08548589451727395</v>
       </c>
       <c r="L151">
         <v>-0.00999880059384815</v>
@@ -11668,13 +11668,13 @@
         <v>-0.08125000000000426</v>
       </c>
       <c r="U151">
-        <v>0.9998482134725724</v>
+        <v>-0.0001517865274276442</v>
       </c>
       <c r="V151">
-        <v>0.9995749073905387</v>
+        <v>-0.0004250926094613305</v>
       </c>
       <c r="W151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11709,7 +11709,7 @@
         <v>0.7079830775846239</v>
       </c>
       <c r="K152">
-        <v>41.45141054827261</v>
+        <v>-0.08548589451727395</v>
       </c>
       <c r="L152">
         <v>-0.01303918887610096</v>
@@ -11739,13 +11739,13 @@
         <v>-0.09062499999999574</v>
       </c>
       <c r="U152">
-        <v>0.9997874666018945</v>
+        <v>-0.0002125333981054522</v>
       </c>
       <c r="V152">
-        <v>0.9995747266099635</v>
+        <v>-0.0004252733900365069</v>
       </c>
       <c r="W152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11780,7 +11780,7 @@
         <v>1.025325418157679</v>
       </c>
       <c r="K153">
-        <v>50.62521849404121</v>
+        <v>0.006252184940412131</v>
       </c>
       <c r="L153">
         <v>-0.01414571407369427</v>
@@ -11810,13 +11810,13 @@
         <v>-0.078125</v>
       </c>
       <c r="U153">
-        <v>1.000030368368308</v>
+        <v>3.036836830760947E-05</v>
       </c>
       <c r="V153">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W153">
-        <v>1.004574565416285</v>
+        <v>0.004574565416285425</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11851,7 +11851,7 @@
         <v>1.025325418157679</v>
       </c>
       <c r="K154">
-        <v>50.62521849404121</v>
+        <v>0.006252184940412131</v>
       </c>
       <c r="L154">
         <v>-0.01395835178824798</v>
@@ -11881,13 +11881,13 @@
         <v>-0.07812500000000711</v>
       </c>
       <c r="U154">
-        <v>1.000091102338293</v>
+        <v>9.110233829323633E-05</v>
       </c>
       <c r="V154">
-        <v>0.9999392208107943</v>
+        <v>-6.077918920566194E-05</v>
       </c>
       <c r="W154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11922,7 +11922,7 @@
         <v>0.8988954615100941</v>
       </c>
       <c r="K155">
-        <v>47.33780662128966</v>
+        <v>-0.02662193378710342</v>
       </c>
       <c r="L155">
         <v>-0.01361116810799859</v>
@@ -11952,13 +11952,13 @@
         <v>-0.08124999999999716</v>
       </c>
       <c r="U155">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V155">
-        <v>0.9998176513493799</v>
+        <v>-0.0001823486506200567</v>
       </c>
       <c r="W155">
-        <v>0.9981785063752276</v>
+        <v>-0.001821493624772352</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11993,7 +11993,7 @@
         <v>0.8988954615100943</v>
       </c>
       <c r="K156">
-        <v>47.33780662128966</v>
+        <v>-0.02662193378710342</v>
       </c>
       <c r="L156">
         <v>-0.0131397333235197</v>
@@ -12023,13 +12023,13 @@
         <v>-0.05937499999999574</v>
       </c>
       <c r="U156">
-        <v>0.999939270640391</v>
+        <v>-6.072935960899084E-05</v>
       </c>
       <c r="V156">
-        <v>0.9997568241230468</v>
+        <v>-0.0002431758769532166</v>
       </c>
       <c r="W156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12064,7 +12064,7 @@
         <v>0.7908437300779622</v>
       </c>
       <c r="K157">
-        <v>44.16039863196404</v>
+        <v>-0.05839601368035957</v>
       </c>
       <c r="L157">
         <v>-0.01323868152408126</v>
@@ -12094,13 +12094,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U157">
-        <v>0.9998785339042241</v>
+        <v>-0.0001214660957759017</v>
       </c>
       <c r="V157">
-        <v>0.9998175737306174</v>
+        <v>-0.0001824262693825851</v>
       </c>
       <c r="W157">
-        <v>0.998175182481752</v>
+        <v>-0.001824817518248034</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12135,7 +12135,7 @@
         <v>0.8541095210044884</v>
       </c>
       <c r="K158">
-        <v>46.06575346971754</v>
+        <v>-0.03934246530282459</v>
       </c>
       <c r="L158">
         <v>-0.01329719971633793</v>
@@ -12165,13 +12165,13 @@
         <v>-0.03437500000000426</v>
       </c>
       <c r="U158">
-        <v>0.9999696297871048</v>
+        <v>-3.037021289520325E-05</v>
       </c>
       <c r="V158">
-        <v>0.9996959007420022</v>
+        <v>-0.0003040992579977919</v>
       </c>
       <c r="W158">
-        <v>1.00091407678245</v>
+        <v>0.000914076782449591</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12206,7 +12206,7 @@
         <v>0.7537206140832144</v>
       </c>
       <c r="K159">
-        <v>42.97837455011236</v>
+        <v>-0.07021625449887636</v>
       </c>
       <c r="L159">
         <v>-0.01394281093346528</v>
@@ -12236,13 +12236,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U159">
-        <v>0.9998177731883617</v>
+        <v>-0.0001822268116382642</v>
       </c>
       <c r="V159">
-        <v>0.9996958082375128</v>
+        <v>-0.0003041917624871937</v>
       </c>
       <c r="W159">
-        <v>0.9981735159817351</v>
+        <v>-0.001826484018264907</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12277,7 +12277,7 @@
         <v>0.7537206140832146</v>
       </c>
       <c r="K160">
-        <v>42.97837455011236</v>
+        <v>-0.07021625449887636</v>
       </c>
       <c r="L160">
         <v>-0.01485258881276876</v>
@@ -12307,13 +12307,13 @@
         <v>0.003125000000004263</v>
       </c>
       <c r="U160">
-        <v>0.9997873633049819</v>
+        <v>-0.0002126366950181424</v>
       </c>
       <c r="V160">
-        <v>0.9997565725413827</v>
+        <v>-0.0002434274586172736</v>
       </c>
       <c r="W160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12348,7 +12348,7 @@
         <v>0.8188376998670948</v>
       </c>
       <c r="K161">
-        <v>45.0198332664277</v>
+        <v>-0.04980166733572294</v>
       </c>
       <c r="L161">
         <v>-0.01547880293925878</v>
@@ -12378,13 +12378,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U161">
-        <v>0.9998480843435724</v>
+        <v>-0.0001519156564275814</v>
       </c>
       <c r="V161">
-        <v>0.9997565132700268</v>
+        <v>-0.000243486729973208</v>
       </c>
       <c r="W161">
-        <v>1.000914913083257</v>
+        <v>0.0009149130832570851</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12419,7 +12419,7 @@
         <v>0.8188376998670948</v>
       </c>
       <c r="K162">
-        <v>45.0198332664277</v>
+        <v>-0.04980166733572294</v>
       </c>
       <c r="L162">
         <v>-0.01583710413708236</v>
@@ -12449,13 +12449,13 @@
         <v>-0.02499999999999858</v>
       </c>
       <c r="U162">
-        <v>0.9998480612616991</v>
+        <v>-0.000151938738300883</v>
       </c>
       <c r="V162">
-        <v>0.9997564539698004</v>
+        <v>-0.000243546030199604</v>
       </c>
       <c r="W162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12490,7 +12490,7 @@
         <v>0.8188376998670948</v>
       </c>
       <c r="K163">
-        <v>45.0198332664277</v>
+        <v>-0.04980166733572294</v>
       </c>
       <c r="L163">
         <v>-0.01595270567614486</v>
@@ -12520,13 +12520,13 @@
         <v>-0.02499999999999147</v>
       </c>
       <c r="U163">
-        <v>0.9998176458073732</v>
+        <v>-0.0001823541926267991</v>
       </c>
       <c r="V163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12561,7 +12561,7 @@
         <v>0.8188376998670948</v>
       </c>
       <c r="K164">
-        <v>45.0198332664277</v>
+        <v>-0.04980166733572294</v>
       </c>
       <c r="L164">
         <v>-0.01585589647794867</v>
@@ -12591,13 +12591,13 @@
         <v>-0.03750000000000142</v>
       </c>
       <c r="U164">
-        <v>0.9997872146396328</v>
+        <v>-0.0002127853603671737</v>
       </c>
       <c r="V164">
-        <v>0.999878197320341</v>
+        <v>-0.0001218026796589999</v>
       </c>
       <c r="W164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12632,7 +12632,7 @@
         <v>0.8188376998670945</v>
       </c>
       <c r="K165">
-        <v>45.0198332664277</v>
+        <v>-0.04980166733572305</v>
       </c>
       <c r="L165">
         <v>-0.01557888963823347</v>
@@ -12662,13 +12662,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U165">
-        <v>0.9998783824870779</v>
+        <v>-0.0001216175129220565</v>
       </c>
       <c r="V165">
-        <v>1.00006090875868</v>
+        <v>6.090875867958978E-05</v>
       </c>
       <c r="W165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12703,7 +12703,7 @@
         <v>0.8188376998670944</v>
       </c>
       <c r="K166">
-        <v>45.01983326642769</v>
+        <v>-0.04980166733572311</v>
       </c>
       <c r="L166">
         <v>-0.01515367299187802</v>
@@ -12733,13 +12733,13 @@
         <v>-0.04062499999999858</v>
       </c>
       <c r="U166">
-        <v>0.9998175515416895</v>
+        <v>-0.0001824484583105024</v>
       </c>
       <c r="V166">
-        <v>1.000060905049029</v>
+        <v>6.090504902855898E-05</v>
       </c>
       <c r="W166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12774,7 +12774,7 @@
         <v>0.8188376998670944</v>
       </c>
       <c r="K167">
-        <v>45.01983326642769</v>
+        <v>-0.04980166733572311</v>
       </c>
       <c r="L167">
         <v>-0.01461060413264061</v>
@@ -12804,13 +12804,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U167">
-        <v>0.9998175182481751</v>
+        <v>-0.0001824817518248922</v>
       </c>
       <c r="V167">
-        <v>1.00006090133983</v>
+        <v>6.090133982961099E-05</v>
       </c>
       <c r="W167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12845,7 +12845,7 @@
         <v>0.9120835942910537</v>
       </c>
       <c r="K168">
-        <v>47.7010313259462</v>
+        <v>-0.02298968674053797</v>
       </c>
       <c r="L168">
         <v>-0.01364527891459233</v>
@@ -12875,13 +12875,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U168">
-        <v>0.9999087424712539</v>
+        <v>-9.125752874605819E-05</v>
       </c>
       <c r="V168">
-        <v>0.9998173071067535</v>
+        <v>-0.0001826928932464611</v>
       </c>
       <c r="W168">
-        <v>1.00091407678245</v>
+        <v>0.000914076782449591</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12916,7 +12916,7 @@
         <v>0.9120835942910537</v>
       </c>
       <c r="K169">
-        <v>47.7010313259462</v>
+        <v>-0.02298968674053797</v>
       </c>
       <c r="L169">
         <v>-0.01243581064947328</v>
@@ -12946,13 +12946,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U169">
-        <v>0.9998783121900764</v>
+        <v>-0.0001216878099236096</v>
       </c>
       <c r="V169">
-        <v>0.9998172737239615</v>
+        <v>-0.0001827262760385473</v>
       </c>
       <c r="W169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12987,7 +12987,7 @@
         <v>1.015403144899319</v>
       </c>
       <c r="K170">
-        <v>50.38213557764614</v>
+        <v>0.003821355776461366</v>
       </c>
       <c r="L170">
         <v>-0.01077774639234735</v>
@@ -13017,13 +13017,13 @@
         <v>0.003125000000004263</v>
       </c>
       <c r="U170">
-        <v>0.9999087230352635</v>
+        <v>-9.12769647365419E-05</v>
       </c>
       <c r="V170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W170">
-        <v>1.000913242009132</v>
+        <v>0.0009132420091324533</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13058,7 +13058,7 @@
         <v>1.015403144899319</v>
       </c>
       <c r="K171">
-        <v>50.38213557764614</v>
+        <v>0.003821355776461366</v>
       </c>
       <c r="L171">
         <v>-0.008914117927341422</v>
@@ -13088,13 +13088,13 @@
         <v>0.01562499999999289</v>
       </c>
       <c r="U171">
-        <v>0.9998782862706913</v>
+        <v>-0.0001217137293086923</v>
       </c>
       <c r="V171">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Frontline 14.01.2021.xlsx
+++ b/data_clean/Frontline 14.01.2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -950,13 +953,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W171"/>
+  <dimension ref="A1:X171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1026,10 +1029,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>55.45</v>
@@ -1086,7 +1092,7 @@
         <v>55.45</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>55.45</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1097,10 +1103,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>54.6</v>
@@ -1157,7 +1166,7 @@
         <v>55.02500000000001</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>55.02500000000001</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1168,10 +1177,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>54.85</v>
@@ -1228,21 +1240,24 @@
         <v>54.96666666666667</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>54.96666666666667</v>
       </c>
       <c r="U4">
-        <v>-0.001060124185976119</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>-0.001060124185976119</v>
       </c>
       <c r="W4">
+        <v>-0.001060124185976119</v>
+      </c>
+      <c r="X4">
         <v>0.004578754578754562</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>55.15</v>
@@ -1299,21 +1314,24 @@
         <v>55.0125</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>54.86666666666667</v>
       </c>
       <c r="U5">
-        <v>0.0008338386901152184</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0.0008338386901152184</v>
       </c>
       <c r="W5">
+        <v>0.0008338386901152184</v>
+      </c>
+      <c r="X5">
         <v>0.005469462169553241</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>55.1</v>
@@ -1370,21 +1388,24 @@
         <v>55.02999999999999</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>55.03333333333334</v>
       </c>
       <c r="U6">
-        <v>0.0003181095205633255</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0.0003181095205633255</v>
       </c>
       <c r="W6">
+        <v>0.0003181095205633255</v>
+      </c>
+      <c r="X6">
         <v>-0.0009066183136898776</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>55.35</v>
@@ -1441,21 +1462,24 @@
         <v>55.08333333333334</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>55.2</v>
       </c>
       <c r="U7">
-        <v>0.0009691683324248856</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0.0009691683324248856</v>
       </c>
       <c r="W7">
+        <v>0.0009691683324248856</v>
+      </c>
+      <c r="X7">
         <v>0.00453720508166966</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>55</v>
@@ -1512,21 +1536,24 @@
         <v>55.07142857142857</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>55.15</v>
       </c>
       <c r="U8">
-        <v>-0.0002161227577264224</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>-0.0002161227577264224</v>
       </c>
       <c r="W8">
+        <v>-0.0002161227577264224</v>
+      </c>
+      <c r="X8">
         <v>-0.006323396567299078</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>55</v>
@@ -1583,21 +1610,24 @@
         <v>55.0625</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>55.11666666666667</v>
       </c>
       <c r="U9">
-        <v>-0.0001621271076523989</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>-0.0001621271076523989</v>
       </c>
       <c r="W9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+        <v>-0.0001621271076523989</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>55.1</v>
@@ -1654,21 +1684,24 @@
         <v>55.06666666666667</v>
       </c>
       <c r="T10">
+        <v>55.03333333333334</v>
+      </c>
+      <c r="U10">
         <v>-0.04791666666666572</v>
-      </c>
-      <c r="U10">
-        <v>7.567158531984752E-05</v>
       </c>
       <c r="V10">
         <v>7.567158531984752E-05</v>
       </c>
       <c r="W10">
+        <v>7.567158531984752E-05</v>
+      </c>
+      <c r="X10">
         <v>0.001818181818181941</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>55</v>
@@ -1725,21 +1758,24 @@
         <v>55.06</v>
       </c>
       <c r="T11">
+        <v>55.03333333333334</v>
+      </c>
+      <c r="U11">
         <v>0.008749999999999147</v>
-      </c>
-      <c r="U11">
-        <v>-0.0001210653753026536</v>
       </c>
       <c r="V11">
         <v>-0.0001210653753026536</v>
       </c>
       <c r="W11">
+        <v>-0.0001210653753026536</v>
+      </c>
+      <c r="X11">
         <v>-0.001814882032667886</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>55.05</v>
@@ -1796,21 +1832,24 @@
         <v>55.05909090909091</v>
       </c>
       <c r="T12">
+        <v>55.05</v>
+      </c>
+      <c r="U12">
         <v>0.03465909090909491</v>
-      </c>
-      <c r="U12">
-        <v>-1.651091371412949E-05</v>
       </c>
       <c r="V12">
         <v>-1.651091371412949E-05</v>
       </c>
       <c r="W12">
+        <v>-1.651091371412949E-05</v>
+      </c>
+      <c r="X12">
         <v>0.0009090909090907484</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>55</v>
@@ -1867,21 +1906,24 @@
         <v>55.05416666666667</v>
       </c>
       <c r="T13">
+        <v>55.01666666666667</v>
+      </c>
+      <c r="U13">
         <v>0.0208333333333357</v>
-      </c>
-      <c r="U13">
-        <v>-8.943559261387346E-05</v>
       </c>
       <c r="V13">
         <v>-8.943559261387346E-05</v>
       </c>
       <c r="W13">
+        <v>-8.943559261387346E-05</v>
+      </c>
+      <c r="X13">
         <v>-0.0009082652134422275</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>54.95</v>
@@ -1938,21 +1980,24 @@
         <v>55.04615384615385</v>
       </c>
       <c r="T14">
+        <v>55</v>
+      </c>
+      <c r="U14">
         <v>0.01009615384614904</v>
-      </c>
-      <c r="U14">
-        <v>-0.0001455443065977446</v>
       </c>
       <c r="V14">
         <v>-0.0001455443065977446</v>
       </c>
       <c r="W14">
+        <v>-0.0001455443065977446</v>
+      </c>
+      <c r="X14">
         <v>-0.0009090909090908594</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>54.95</v>
@@ -2009,21 +2054,24 @@
         <v>55.03928571428571</v>
       </c>
       <c r="T15">
+        <v>54.96666666666667</v>
+      </c>
+      <c r="U15">
         <v>-0.03303571428570962</v>
-      </c>
-      <c r="U15">
-        <v>-0.0001247704224228707</v>
       </c>
       <c r="V15">
         <v>-0.0001247704224228707</v>
       </c>
       <c r="W15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+        <v>-0.0001247704224228707</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>55.1</v>
@@ -2080,21 +2128,24 @@
         <v>55.04333333333333</v>
       </c>
       <c r="T16">
+        <v>55</v>
+      </c>
+      <c r="U16">
         <v>-0.02458333333332519</v>
-      </c>
-      <c r="U16">
-        <v>7.354054463259985E-05</v>
       </c>
       <c r="V16">
         <v>7.354054463259985E-05</v>
       </c>
       <c r="W16">
+        <v>7.354054463259985E-05</v>
+      </c>
+      <c r="X16">
         <v>0.002729754322110978</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>55.15</v>
@@ -2151,21 +2202,24 @@
         <v>55.02333333333333</v>
       </c>
       <c r="T17">
+        <v>55.06666666666666</v>
+      </c>
+      <c r="U17">
         <v>-0.01249999999999574</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.0001211166959365073</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-0.000363350087809633</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.0009074410163338875</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>55.3</v>
@@ -2222,21 +2276,24 @@
         <v>55.07000000000001</v>
       </c>
       <c r="T18">
+        <v>55.18333333333334</v>
+      </c>
+      <c r="U18">
         <v>0.02187500000000142</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.0002671368274831387</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.0008481250378629124</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.002719854941069855</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>55.2</v>
@@ -2293,21 +2350,24 @@
         <v>55.09333333333334</v>
       </c>
       <c r="T19">
+        <v>55.21666666666667</v>
+      </c>
+      <c r="U19">
         <v>0.009374999999998579</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.0001365001365001284</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.0004237031656679768</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-0.001808318264014397</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>55.1</v>
@@ -2364,21 +2424,24 @@
         <v>55.09</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>55.2</v>
       </c>
       <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
         <v>2.654674616553443E-05</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-6.050338818985868E-05</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-0.001811594202898559</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>55.2</v>
@@ -2435,21 +2498,24 @@
         <v>55.09666666666667</v>
       </c>
       <c r="T21">
+        <v>55.16666666666666</v>
+      </c>
+      <c r="U21">
         <v>0.02187499999999432</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.0001146788990824543</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.000121014098142469</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.001814882032667997</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>55</v>
@@ -2506,21 +2572,24 @@
         <v>55.07333333333334</v>
       </c>
       <c r="T22">
+        <v>55.1</v>
+      </c>
+      <c r="U22">
         <v>0.03437499999999716</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>-6.916346785634797E-05</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>-0.0004234980942585675</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>-0.003623188405797118</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>55.05</v>
@@ -2577,21 +2646,24 @@
         <v>55.07666666666667</v>
       </c>
       <c r="T23">
+        <v>55.08333333333334</v>
+      </c>
+      <c r="U23">
         <v>0.06562500000000426</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-2.161507867870505E-05</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>6.052536012579601E-05</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.0009090909090907484</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>55.1</v>
@@ -2648,21 +2720,24 @@
         <v>55.08333333333334</v>
       </c>
       <c r="T24">
+        <v>55.04999999999999</v>
+      </c>
+      <c r="U24">
         <v>0.05937499999999574</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>1.973593321369371E-05</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.0001210433940568301</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.0009082652134424496</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>55.25</v>
@@ -2719,21 +2794,24 @@
         <v>55.09333333333333</v>
       </c>
       <c r="T25">
+        <v>55.13333333333333</v>
+      </c>
+      <c r="U25">
         <v>0.05624999999999858</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.0001315702914281847</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.0001815431164902126</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.002722323049001885</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>55.25</v>
@@ -2790,21 +2868,24 @@
         <v>55.11</v>
       </c>
       <c r="T26">
+        <v>55.20000000000001</v>
+      </c>
+      <c r="U26">
         <v>0.04062499999999858</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.0001210287443267344</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.0003025169409487383</v>
       </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>55.1</v>
@@ -2861,21 +2942,24 @@
         <v>55.11333333333334</v>
       </c>
       <c r="T27">
+        <v>55.2</v>
+      </c>
+      <c r="U27">
         <v>0.02187500000000142</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>6.981582585163792E-06</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>6.04850904253329E-05</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-0.002714932126696823</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>55.1</v>
@@ -2932,21 +3016,24 @@
         <v>55.12</v>
       </c>
       <c r="T28">
+        <v>55.15</v>
+      </c>
+      <c r="U28">
         <v>0.01874999999999005</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>6.464383188076184E-06</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.0001209628644005534</v>
       </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>55.05</v>
@@ -3003,21 +3090,24 @@
         <v>55.12666666666667</v>
       </c>
       <c r="T29">
+        <v>55.08333333333334</v>
+      </c>
+      <c r="U29">
         <v>-0.003125000000004263</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-2.641145200554806E-05</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.0001209482341557599</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-0.0009074410163339985</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>55.05</v>
@@ -3074,21 +3164,24 @@
         <v>55.13333333333333</v>
       </c>
       <c r="T30">
+        <v>55.06666666666666</v>
+      </c>
+      <c r="U30">
         <v>-0.003125000000004263</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-2.459062203097329E-05</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.0001209336074494693</v>
       </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>55.05</v>
@@ -3145,21 +3238,24 @@
         <v>55.13</v>
       </c>
       <c r="T31">
+        <v>55.04999999999999</v>
+      </c>
+      <c r="U31">
         <v>-0.009374999999998579</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-2.295181162825788E-05</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-6.045949214017465E-05</v>
       </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>55</v>
@@ -3216,21 +3312,24 @@
         <v>55.12</v>
       </c>
       <c r="T32">
+        <v>55.03333333333333</v>
+      </c>
+      <c r="U32">
         <v>-0.015625</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-0.0002722981967808735</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-0.0001813894431345053</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-0.0009082652134422275</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>54.9</v>
@@ -3287,21 +3386,24 @@
         <v>55.09333333333333</v>
       </c>
       <c r="T33">
+        <v>54.98333333333333</v>
+      </c>
+      <c r="U33">
         <v>-0.04374999999999574</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.0001815815755228378</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>-0.0004837929366230398</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-0.00181818181818183</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>54.9</v>
@@ -3358,21 +3460,24 @@
         <v>55.07333333333334</v>
       </c>
       <c r="T34">
+        <v>54.93333333333334</v>
+      </c>
+      <c r="U34">
         <v>-0.0625</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>3.025810160672826E-05</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-0.0003630203291383749</v>
       </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>54.9</v>
@@ -3429,21 +3534,24 @@
         <v>55.06</v>
       </c>
       <c r="T35">
+        <v>54.9</v>
+      </c>
+      <c r="U35">
         <v>-0.06874999999999432</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>-0.0001512859304084735</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>-0.0002421014405037392</v>
       </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>54.8</v>
@@ -3500,21 +3608,24 @@
         <v>55.03333333333333</v>
       </c>
       <c r="T36">
+        <v>54.86666666666667</v>
+      </c>
+      <c r="U36">
         <v>-0.08749999999999858</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>-0.0001815705855653382</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>-0.0004843201356096172</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>-0.001821493624772352</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>54.95</v>
@@ -3571,21 +3682,24 @@
         <v>55.02999999999999</v>
       </c>
       <c r="T37">
+        <v>54.88333333333333</v>
+      </c>
+      <c r="U37">
         <v>-0.08437499999999432</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>-0.0002421380792395622</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>-6.056935190801305E-05</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.002737226277372384</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>54.95</v>
@@ -3642,21 +3756,24 @@
         <v>55.02333333333333</v>
       </c>
       <c r="T38">
+        <v>54.9</v>
+      </c>
+      <c r="U38">
         <v>-0.09375</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>-3.027459053617232E-05</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>-0.0001211460415529997</v>
       </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>55</v>
@@ -3713,21 +3830,24 @@
         <v>55.01666666666667</v>
       </c>
       <c r="T39">
+        <v>54.96666666666667</v>
+      </c>
+      <c r="U39">
         <v>-0.09687500000000426</v>
       </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
       <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
         <v>-0.0001211607196947018</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>0.0009099181073701779</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>54.85</v>
@@ -3784,21 +3904,24 @@
         <v>54.99</v>
       </c>
       <c r="T40">
+        <v>54.93333333333334</v>
+      </c>
+      <c r="U40">
         <v>-0.1000000000000014</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>-0.0001513775355737046</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>-0.0004847016055740117</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>-0.002727272727272689</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>54.85</v>
@@ -3855,21 +3978,24 @@
         <v>54.96333333333334</v>
       </c>
       <c r="T41">
+        <v>54.90000000000001</v>
+      </c>
+      <c r="U41">
         <v>-0.08125000000000426</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>-9.084027252070914E-05</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>-0.0004849366551493706</v>
       </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>54.9</v>
@@ -3926,21 +4052,24 @@
         <v>54.95</v>
       </c>
       <c r="T42">
+        <v>54.86666666666667</v>
+      </c>
+      <c r="U42">
         <v>-0.05937500000000284</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>-9.084852522578402E-05</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>-0.0002425859664019203</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>0.0009115770282588365</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>54.8</v>
@@ -3997,21 +4126,24 @@
         <v>54.92999999999999</v>
       </c>
       <c r="T43">
+        <v>54.85</v>
+      </c>
+      <c r="U43">
         <v>-0.05312499999999432</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>-0.000121142372573213</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>-0.0003639672429482932</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>-0.001821493624772352</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>54.75</v>
@@ -4068,21 +4200,24 @@
         <v>54.91</v>
       </c>
       <c r="T44">
+        <v>54.81666666666666</v>
+      </c>
+      <c r="U44">
         <v>-0.03750000000000142</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>-0.0001211570498257375</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>-0.0003640997633350684</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>-0.0009124087591240171</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>54.9</v>
@@ -4139,21 +4274,24 @@
         <v>54.89999999999999</v>
       </c>
       <c r="T45">
+        <v>54.81666666666666</v>
+      </c>
+      <c r="U45">
         <v>-0.03437499999999716</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>-3.029293265888189E-05</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>-0.0001821161901294222</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>0.002739726027397138</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>54.75</v>
@@ -4210,21 +4348,24 @@
         <v>54.88</v>
       </c>
       <c r="T46">
+        <v>54.8</v>
+      </c>
+      <c r="U46">
         <v>-0.04062499999999858</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>-0.000212056952438755</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>-0.0003642987249543594</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>-0.002732240437158473</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>54.8</v>
@@ -4281,21 +4422,24 @@
         <v>54.86666666666667</v>
       </c>
       <c r="T47">
+        <v>54.81666666666666</v>
+      </c>
+      <c r="U47">
         <v>-0.04999999999999716</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>-0.0002121019301275506</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>-0.0002429543245868748</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>0.0009132420091324533</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>54.7</v>
@@ -4352,21 +4496,24 @@
         <v>54.85333333333333</v>
       </c>
       <c r="T48">
+        <v>54.75</v>
+      </c>
+      <c r="U48">
         <v>-0.04999999999999716</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>-0.0003636804461145671</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>-0.0002430133657351785</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>-0.001824817518248034</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>54.75</v>
@@ -4423,21 +4570,24 @@
         <v>54.84333333333333</v>
       </c>
       <c r="T49">
+        <v>54.75</v>
+      </c>
+      <c r="U49">
         <v>-0.05312499999999432</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>-0.0002728595682754964</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>-0.0001823043266893087</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>0.000914076782449591</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>54.65</v>
@@ -4494,21 +4644,24 @@
         <v>54.82666666666668</v>
       </c>
       <c r="T50">
+        <v>54.70000000000001</v>
+      </c>
+      <c r="U50">
         <v>-0.06875000000000853</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>-0.0002729340409400871</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>-0.0003038959460279766</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>-0.001826484018264907</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>54.75</v>
@@ -4565,21 +4718,24 @@
         <v>54.82333333333334</v>
       </c>
       <c r="T51">
+        <v>54.71666666666666</v>
+      </c>
+      <c r="U51">
         <v>-0.06562500000001137</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>-0.0002730085542680394</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>-6.07976653697051E-05</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>0.00182982616651417</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>54.8</v>
@@ -4636,21 +4792,24 @@
         <v>54.81333333333334</v>
       </c>
       <c r="T52">
+        <v>54.73333333333333</v>
+      </c>
+      <c r="U52">
         <v>-0.05937500000000284</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>-0.0001213702703523056</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>-0.000182404085851462</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>0.0009132420091324533</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>54.8</v>
@@ -4707,21 +4866,24 @@
         <v>54.80333333333333</v>
       </c>
       <c r="T53">
+        <v>54.78333333333333</v>
+      </c>
+      <c r="U53">
         <v>-0.0625</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>-0.0001517312536037929</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>-0.0001824373631722498</v>
       </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="X53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>54.9</v>
@@ -4778,21 +4940,24 @@
         <v>54.79666666666667</v>
       </c>
       <c r="T54">
+        <v>54.83333333333334</v>
+      </c>
+      <c r="U54">
         <v>-0.04062500000000568</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>-0.0001214034235764716</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>-0.0001216471017576604</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>0.001824817518248256</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>54.95</v>
@@ -4849,21 +5014,24 @@
         <v>54.80333333333333</v>
       </c>
       <c r="T55">
+        <v>54.88333333333333</v>
+      </c>
+      <c r="U55">
         <v>-0.01875000000000426</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>-0.000182127246236008</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>0.0001216619015753651</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>0.0009107468123863427</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>54.75</v>
@@ -4920,21 +5088,24 @@
         <v>54.79666666666666</v>
       </c>
       <c r="T56">
+        <v>54.86666666666667</v>
+      </c>
+      <c r="U56">
         <v>-0.006250000000001421</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>-0.0003036007043536459</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>-0.0001216471017577714</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>-0.003639672429481378</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>54.95</v>
@@ -4991,21 +5162,24 @@
         <v>54.8</v>
       </c>
       <c r="T57">
+        <v>54.88333333333333</v>
+      </c>
+      <c r="U57">
         <v>0.01250000000000284</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>-9.11078717201752E-05</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>6.083095078790457E-05</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>0.003652968036529813</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>54.95</v>
@@ -5062,21 +5236,24 @@
         <v>54.81</v>
       </c>
       <c r="T58">
+        <v>54.88333333333333</v>
+      </c>
+      <c r="U58">
         <v>0.04687500000000711</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>-9.111617312074216E-05</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>0.0001824817518247812</v>
       </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="X58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>54.9</v>
@@ -5133,21 +5310,24 @@
         <v>54.82000000000001</v>
       </c>
       <c r="T59">
+        <v>54.93333333333334</v>
+      </c>
+      <c r="U59">
         <v>0.05937499999999574</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>-9.112447603421003E-05</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>0.0001824484583108354</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>-0.0009099181073703999</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>54.9</v>
@@ -5204,21 +5384,24 @@
         <v>54.82000000000001</v>
       </c>
       <c r="T60">
+        <v>54.91666666666666</v>
+      </c>
+      <c r="U60">
         <v>0.0625</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>-9.113278046113393E-05</v>
       </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
       <c r="W60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="X60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>54.8</v>
@@ -5275,21 +5458,24 @@
         <v>54.82333333333334</v>
       </c>
       <c r="T61">
+        <v>54.86666666666667</v>
+      </c>
+      <c r="U61">
         <v>0.06874999999999432</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>-0.0001519018106694858</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>6.080505898076183E-05</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>-0.001821493624772352</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>54.8</v>
@@ -5346,21 +5532,24 @@
         <v>54.82333333333334</v>
       </c>
       <c r="T62">
+        <v>54.83333333333334</v>
+      </c>
+      <c r="U62">
         <v>0.05312499999999432</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>-0.0001215399106682113</v>
       </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
       <c r="W62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="X62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>54.95</v>
@@ -5417,21 +5606,24 @@
         <v>54.84</v>
       </c>
       <c r="T63">
+        <v>54.84999999999999</v>
+      </c>
+      <c r="U63">
         <v>0.04375000000000284</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>3.038867110327637E-05</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>0.0003040068097526216</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>0.002737226277372384</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>54.9</v>
@@ -5488,21 +5680,24 @@
         <v>54.85</v>
       </c>
       <c r="T64">
+        <v>54.88333333333333</v>
+      </c>
+      <c r="U64">
         <v>0.05000000000000426</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>0.0001823486506200567</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>-0.0009099181073703999</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>54.85</v>
@@ -5559,21 +5754,24 @@
         <v>54.86333333333333</v>
       </c>
       <c r="T65">
+        <v>54.9</v>
+      </c>
+      <c r="U65">
         <v>0.03124999999999289</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>-3.038774765995456E-05</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>0.0002430872075356305</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>-0.0009107468123861207</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>54.85</v>
@@ -5630,21 +5828,24 @@
         <v>54.87</v>
       </c>
       <c r="T66">
+        <v>54.86666666666667</v>
+      </c>
+      <c r="U66">
         <v>0.006250000000001421</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>3.038867110327637E-05</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>0.00012151406525307</v>
       </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="X66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>54.85</v>
@@ -5701,21 +5902,24 @@
         <v>54.87333333333333</v>
       </c>
       <c r="T67">
+        <v>54.85</v>
+      </c>
+      <c r="U67">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>-6.07754953203532E-05</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>6.074965068947336E-05</v>
       </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="X67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>54.85</v>
@@ -5772,21 +5976,24 @@
         <v>54.87666666666667</v>
       </c>
       <c r="T68">
+        <v>54.85</v>
+      </c>
+      <c r="U68">
         <v>-0.01562500000000711</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>-6.077918920555092E-05</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>6.074596039362667E-05</v>
       </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23">
+      <c r="X68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>54.9</v>
@@ -5843,21 +6050,24 @@
         <v>54.87666666666667</v>
       </c>
       <c r="T69">
+        <v>54.86666666666667</v>
+      </c>
+      <c r="U69">
         <v>-0.009374999999998579</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>-6.07828835400559E-05</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>0.0009115770282588365</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>54.85</v>
@@ -5914,21 +6124,24 @@
         <v>54.87</v>
       </c>
       <c r="T70">
-        <v>0</v>
+        <v>54.86666666666667</v>
       </c>
       <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>-0.0001214845410920651</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>-0.0009107468123861207</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>54.9</v>
@@ -5985,21 +6198,24 @@
         <v>54.88</v>
       </c>
       <c r="T71">
+        <v>54.88333333333333</v>
+      </c>
+      <c r="U71">
         <v>-0.003124999999997158</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>3.039328916165651E-05</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>0.0001822489520684201</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>0.0009115770282588365</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>54.95</v>
@@ -6056,21 +6272,24 @@
         <v>54.88</v>
       </c>
       <c r="T72">
+        <v>54.9</v>
+      </c>
+      <c r="U72">
         <v>-0.009374999999998579</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>3.039236543789237E-05</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>0.0009107468123863427</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>55</v>
@@ -6127,21 +6346,24 @@
         <v>54.88333333333333</v>
       </c>
       <c r="T73">
+        <v>54.95</v>
+      </c>
+      <c r="U73">
         <v>0.006250000000008527</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>0.0001215657670798898</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>6.073858114685748E-05</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>0.0009099181073701779</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>54.95</v>
@@ -6198,21 +6420,24 @@
         <v>54.88666666666666</v>
       </c>
       <c r="T74">
+        <v>54.96666666666667</v>
+      </c>
+      <c r="U74">
         <v>0.01874999999999716</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>0.0001215509906404844</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>6.073489219549089E-05</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>-0.0009090909090908594</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>55</v>
@@ -6269,21 +6494,24 @@
         <v>54.89333333333333</v>
       </c>
       <c r="T75">
+        <v>54.98333333333334</v>
+      </c>
+      <c r="U75">
         <v>0.03125</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>6.076810889643625E-05</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>0.0001214624073848647</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>0.0009099181073701779</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>55</v>
@@ -6340,21 +6568,24 @@
         <v>54.90666666666667</v>
       </c>
       <c r="T76">
+        <v>54.98333333333334</v>
+      </c>
+      <c r="U76">
         <v>0.04375000000000284</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>0.0001519110408945146</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>0.0002428953121205168</v>
       </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="X76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>54.9</v>
@@ -6411,21 +6642,24 @@
         <v>54.91333333333333</v>
       </c>
       <c r="T77">
+        <v>54.96666666666666</v>
+      </c>
+      <c r="U77">
         <v>0.03749999999999432</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>6.075518697423732E-05</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>0.0001214181641573386</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>-0.00181818181818183</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>54.9</v>
@@ -6482,21 +6716,24 @@
         <v>54.91</v>
       </c>
       <c r="T78">
+        <v>54.93333333333333</v>
+      </c>
+      <c r="U78">
         <v>0.03750000000000853</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>0.0001215029920109689</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>-6.070171178818029E-05</v>
       </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23">
+      <c r="X78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>54.9</v>
@@ -6553,21 +6790,24 @@
         <v>54.91</v>
       </c>
       <c r="T79">
+        <v>54.9</v>
+      </c>
+      <c r="U79">
         <v>0.04062499999999147</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>9.111617312074216E-05</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23">
+      <c r="X79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>54.8</v>
@@ -6624,21 +6864,24 @@
         <v>54.90666666666667</v>
       </c>
       <c r="T80">
+        <v>54.86666666666667</v>
+      </c>
+      <c r="U80">
         <v>0.02812499999999574</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>9.110787172006418E-05</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>-6.07053967098814E-05</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>-0.001821493624772352</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>55.05</v>
@@ -6695,21 +6938,24 @@
         <v>54.91999999999999</v>
       </c>
       <c r="T81">
+        <v>54.91666666666666</v>
+      </c>
+      <c r="U81">
         <v>0.02187500000000142</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>0.0001821991436639081</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>0.0002428363283146773</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>0.004562043795620419</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>55.1</v>
@@ -6766,21 +7012,24 @@
         <v>54.93666666666666</v>
       </c>
       <c r="T82">
+        <v>54.98333333333333</v>
+      </c>
+      <c r="U82">
         <v>0.02499999999999858</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>0.000182165953183544</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>0.0003034717164360767</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>0.0009082652134424496</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>55.15</v>
@@ -6837,21 +7086,24 @@
         <v>54.95666666666666</v>
       </c>
       <c r="T83">
+        <v>55.1</v>
+      </c>
+      <c r="U83">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>0.0002124882372582793</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>0.0003640555791517563</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>0.0009074410163338875</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>55.2</v>
@@ -6908,21 +7160,24 @@
         <v>54.97666666666667</v>
       </c>
       <c r="T84">
+        <v>55.15</v>
+      </c>
+      <c r="U84">
         <v>0.02812500000000284</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>0.0001820940819423633</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>0.0003639230909202595</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>0.0009066183136900996</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>55.2</v>
@@ -6979,21 +7234,24 @@
         <v>55</v>
       </c>
       <c r="T85">
+        <v>55.18333333333334</v>
+      </c>
+      <c r="U85">
         <v>0.046875</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>0.0001517174414371603</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>0.0004244224822651521</v>
       </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23">
+      <c r="X85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>55.3</v>
@@ -7050,21 +7308,24 @@
         <v>55.02666666666666</v>
       </c>
       <c r="T86">
+        <v>55.23333333333333</v>
+      </c>
+      <c r="U86">
         <v>0.06875000000000142</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>0.0003337277388428816</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>0.0004848484848485324</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>0.001811594202898448</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>55.3</v>
@@ -7121,21 +7382,24 @@
         <v>55.05</v>
       </c>
       <c r="T87">
+        <v>55.26666666666667</v>
+      </c>
+      <c r="U87">
         <v>0.09375000000000711</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>0.0002123013465971102</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>0.0004240368306276388</v>
       </c>
-      <c r="W87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23">
+      <c r="X87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>55.15</v>
@@ -7192,21 +7456,24 @@
         <v>55.06000000000001</v>
       </c>
       <c r="T88">
+        <v>55.25</v>
+      </c>
+      <c r="U88">
         <v>0.1249999999999929</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>0.0001212893053155195</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>0.0001816530426885787</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>-0.002712477396021651</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>55.15</v>
@@ -7263,21 +7530,24 @@
         <v>55.07333333333334</v>
       </c>
       <c r="T89">
+        <v>55.2</v>
+      </c>
+      <c r="U89">
         <v>0.1281249999999901</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>0.0001515932450049107</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>0.0002421600678046421</v>
       </c>
-      <c r="W89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23">
+      <c r="X89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>55.15</v>
@@ -7334,21 +7604,24 @@
         <v>55.08333333333334</v>
       </c>
       <c r="T90">
+        <v>55.15</v>
+      </c>
+      <c r="U90">
         <v>0.1218750000000028</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>0.0001515702679764086</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>0.0001815760803776101</v>
       </c>
-      <c r="W90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23">
+      <c r="X90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>55.15</v>
@@ -7405,21 +7678,24 @@
         <v>55.09333333333333</v>
       </c>
       <c r="T91">
+        <v>55.15</v>
+      </c>
+      <c r="U91">
         <v>0.1124999999999972</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>0.000212166217076204</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>0.0001815431164902126</v>
       </c>
-      <c r="W91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23">
+      <c r="X91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>55.2</v>
@@ -7476,21 +7752,24 @@
         <v>55.11333333333334</v>
       </c>
       <c r="T92">
+        <v>55.16666666666666</v>
+      </c>
+      <c r="U92">
         <v>0.1000000000000014</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>0.0002424242424241552</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>0.0003630203291384859</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>0.0009066183136900996</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>55.2</v>
@@ -7547,21 +7826,24 @@
         <v>55.13333333333333</v>
       </c>
       <c r="T93">
+        <v>55.18333333333334</v>
+      </c>
+      <c r="U93">
         <v>0.08125000000000426</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>0.0001514784294716076</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>0.0003628885932018822</v>
       </c>
-      <c r="W93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23">
+      <c r="X93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>55.2</v>
@@ -7618,21 +7900,24 @@
         <v>55.15333333333333</v>
       </c>
       <c r="T94">
+        <v>55.20000000000001</v>
+      </c>
+      <c r="U94">
         <v>0.04999999999999716</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>0.0001817465846789545</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>0.000362756952841492</v>
       </c>
-      <c r="W94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23">
+      <c r="X94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>55.2</v>
@@ -7689,21 +7974,24 @@
         <v>55.18</v>
       </c>
       <c r="T95">
+        <v>55.20000000000001</v>
+      </c>
+      <c r="U95">
         <v>0.01874999999999716</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>0.0002119991520033171</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>0.0004835005439380868</v>
       </c>
-      <c r="W95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23">
+      <c r="X95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>55.1</v>
@@ -7760,21 +8048,24 @@
         <v>55.18333333333333</v>
       </c>
       <c r="T96">
+        <v>55.16666666666666</v>
+      </c>
+      <c r="U96">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>0.0001513958699206341</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>6.040836051712795E-05</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>-0.001811594202898559</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>55.1</v>
@@ -7831,21 +8122,24 @@
         <v>55.18333333333333</v>
       </c>
       <c r="T97">
+        <v>55.13333333333333</v>
+      </c>
+      <c r="U97">
         <v>-0.01562499999999289</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>0.0001513729526809726</v>
       </c>
-      <c r="V97">
-        <v>0</v>
-      </c>
       <c r="W97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:23">
+      <c r="X97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>55.1</v>
@@ -7902,21 +8196,24 @@
         <v>55.18</v>
       </c>
       <c r="T98">
+        <v>55.1</v>
+      </c>
+      <c r="U98">
         <v>-0.02187500000000142</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>0.0001513500423779846</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>-6.040471156742999E-05</v>
       </c>
-      <c r="W98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23">
+      <c r="X98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>55.05</v>
@@ -7973,21 +8270,24 @@
         <v>55.16999999999999</v>
       </c>
       <c r="T99">
+        <v>55.08333333333334</v>
+      </c>
+      <c r="U99">
         <v>-0.02812499999999574</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>9.079628340558088E-05</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>-0.0001812250815513838</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>-0.0009074410163339985</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>55</v>
@@ -8044,21 +8344,24 @@
         <v>55.15666666666666</v>
       </c>
       <c r="T100">
+        <v>55.05</v>
+      </c>
+      <c r="U100">
         <v>-0.04062499999999147</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>9.078804018880504E-05</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>-0.0002416772400459788</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>-0.0009082652134422275</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>55.05</v>
@@ -8115,21 +8418,24 @@
         <v>55.14</v>
       </c>
       <c r="T101">
+        <v>55.03333333333333</v>
+      </c>
+      <c r="U101">
         <v>-0.04999999999999716</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>9.077979846883188E-05</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>-0.000302169577566791</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>0.0009090909090907484</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>54.95</v>
@@ -8186,21 +8492,24 @@
         <v>55.11666666666667</v>
       </c>
       <c r="T102">
+        <v>55</v>
+      </c>
+      <c r="U102">
         <v>-0.05937499999999574</v>
       </c>
-      <c r="U102">
-        <v>0</v>
-      </c>
       <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
         <v>-0.0004231652762665128</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>-0.001816530426884566</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>54.9</v>
@@ -8257,21 +8566,24 @@
         <v>55.1</v>
       </c>
       <c r="T103">
+        <v>54.96666666666666</v>
+      </c>
+      <c r="U103">
         <v>-0.07187500000000568</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>-6.051437216336719E-05</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>-0.000302388872089443</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>-0.0009099181073703999</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>55</v>
@@ -8328,21 +8640,24 @@
         <v>55.09</v>
       </c>
       <c r="T104">
+        <v>54.95000000000001</v>
+      </c>
+      <c r="U104">
         <v>-0.07500000000000284</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>3.025901718700652E-05</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>-0.0001814882032667997</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>0.001821493624772241</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>54.9</v>
@@ -8399,21 +8714,24 @@
         <v>55.07333333333334</v>
       </c>
       <c r="T105">
+        <v>54.93333333333333</v>
+      </c>
+      <c r="U105">
         <v>-0.08437500000000142</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>-6.051620321345652E-05</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>-0.0003025352453560615</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>-0.00181818181818183</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>54.85</v>
@@ -8470,21 +8788,24 @@
         <v>55.05333333333333</v>
       </c>
       <c r="T106">
+        <v>54.91666666666666</v>
+      </c>
+      <c r="U106">
         <v>-0.09687500000000426</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>-9.077979846872086E-05</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>-0.0003631521607554422</v>
       </c>
-      <c r="W106">
+      <c r="X106">
         <v>-0.0009107468123861207</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>54.9</v>
@@ -8541,21 +8862,24 @@
         <v>55.03333333333333</v>
       </c>
       <c r="T107">
+        <v>54.88333333333333</v>
+      </c>
+      <c r="U107">
         <v>-0.1000000000000014</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>-0.000363284088157001</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>0.0009115770282588365</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>54.8</v>
@@ -8612,21 +8936,24 @@
         <v>55.00666666666667</v>
       </c>
       <c r="T108">
+        <v>54.84999999999999</v>
+      </c>
+      <c r="U108">
         <v>-0.1000000000000014</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>-6.052536012568499E-05</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>-0.0004845548152634382</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>-0.001821493624772352</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>54.8</v>
@@ -8683,21 +9010,24 @@
         <v>54.98</v>
       </c>
       <c r="T109">
+        <v>54.83333333333334</v>
+      </c>
+      <c r="U109">
         <v>-0.1062500000000099</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>-6.052902366693313E-05</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>-0.0004847897224578013</v>
       </c>
-      <c r="W109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23">
+      <c r="X109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>54.95</v>
@@ -8754,21 +9084,24 @@
         <v>54.96333333333333</v>
       </c>
       <c r="T110">
+        <v>54.84999999999999</v>
+      </c>
+      <c r="U110">
         <v>-0.09062500000000284</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>9.079903147712898E-05</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>-0.0003031405359525952</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>0.002737226277372384</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>55</v>
@@ -8825,21 +9158,24 @@
         <v>54.95666666666667</v>
       </c>
       <c r="T111">
+        <v>54.91666666666666</v>
+      </c>
+      <c r="U111">
         <v>-0.06562499999999716</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>-3.026359592039896E-05</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>-0.0001212929832008491</v>
       </c>
-      <c r="W111">
+      <c r="X111">
         <v>0.0009099181073701779</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>54.9</v>
@@ -8896,21 +9232,24 @@
         <v>54.94333333333334</v>
       </c>
       <c r="T112">
+        <v>54.95</v>
+      </c>
+      <c r="U112">
         <v>-0.06562499999999716</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>-0.0001210580473339773</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>-0.0002426153939467657</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>-0.00181818181818183</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>54.9</v>
@@ -8967,21 +9306,24 @@
         <v>54.93</v>
       </c>
       <c r="T113">
+        <v>54.93333333333334</v>
+      </c>
+      <c r="U113">
         <v>-0.05312500000000853</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>-0.000151340880198414</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>-0.0002426742704605411</v>
       </c>
-      <c r="W113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23">
+      <c r="X113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>55</v>
@@ -9038,21 +9380,24 @@
         <v>54.92666666666667</v>
       </c>
       <c r="T114">
+        <v>54.93333333333334</v>
+      </c>
+      <c r="U114">
         <v>-0.02812500000000284</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>-0.0001210910301819856</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>-6.068329388908555E-05</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>0.001821493624772241</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>54.95</v>
@@ -9109,21 +9454,24 @@
         <v>54.92333333333333</v>
       </c>
       <c r="T115">
+        <v>54.95</v>
+      </c>
+      <c r="U115">
         <v>-0.01562500000000711</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>-0.0001513821187441033</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>-6.068697657490851E-05</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>-0.0009090909090908594</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>54.9</v>
@@ -9180,21 +9528,24 @@
         <v>54.91333333333333</v>
       </c>
       <c r="T116">
+        <v>54.95</v>
+      </c>
+      <c r="U116">
         <v>0.003125000000004263</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>-0.0002422480620155598</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>-0.0001820719791224557</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>-0.0009099181073703999</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>55</v>
@@ -9251,21 +9602,24 @@
         <v>54.91666666666666</v>
       </c>
       <c r="T117">
+        <v>54.95</v>
+      </c>
+      <c r="U117">
         <v>0.03125000000000711</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>-0.0001817300702688929</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>6.070171178840233E-05</v>
       </c>
-      <c r="W117">
+      <c r="X117">
         <v>0.001821493624772241</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>54.9</v>
@@ -9322,21 +9676,24 @@
         <v>54.91666666666666</v>
       </c>
       <c r="T118">
+        <v>54.93333333333334</v>
+      </c>
+      <c r="U118">
         <v>0.02812499999999574</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>-0.0001514692517419203</v>
       </c>
-      <c r="V118">
-        <v>0</v>
-      </c>
       <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
         <v>-0.00181818181818183</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>54.9</v>
@@ -9393,21 +9750,24 @@
         <v>54.91</v>
       </c>
       <c r="T119">
+        <v>54.93333333333334</v>
+      </c>
+      <c r="U119">
         <v>0.01562500000000711</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>-0.0001514921981518036</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>-0.0001213960546282422</v>
       </c>
-      <c r="W119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23">
+      <c r="X119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>54.85</v>
@@ -9464,21 +9824,24 @@
         <v>54.90666666666667</v>
       </c>
       <c r="T120">
+        <v>54.88333333333333</v>
+      </c>
+      <c r="U120">
         <v>0.01874999999999716</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>-0.0001818181818181719</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>-6.070539670965935E-05</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>-0.0009107468123861207</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>54.9</v>
@@ -9535,21 +9898,24 @@
         <v>54.91</v>
       </c>
       <c r="T121">
+        <v>54.88333333333333</v>
+      </c>
+      <c r="U121">
         <v>0.01874999999999716</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>-0.0001515427047342754</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>6.07090820785583E-05</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>0.0009115770282588365</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>55</v>
@@ -9606,21 +9972,24 @@
         <v>54.91666666666666</v>
       </c>
       <c r="T122">
+        <v>54.91666666666666</v>
+      </c>
+      <c r="U122">
         <v>0.009374999999998579</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>-0.0001212525387249697</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>0.0001214107934195408</v>
       </c>
-      <c r="W122">
+      <c r="X122">
         <v>0.001821493624772241</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>54.85</v>
@@ -9677,21 +10046,24 @@
         <v>54.92</v>
       </c>
       <c r="T123">
-        <v>0</v>
+        <v>54.91666666666666</v>
       </c>
       <c r="U123">
+        <v>0</v>
+      </c>
+      <c r="V123">
         <v>-0.0002122176747005877</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>6.069802731412111E-05</v>
       </c>
-      <c r="W123">
+      <c r="X123">
         <v>-0.002727272727272689</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>54.75</v>
@@ -9748,21 +10120,24 @@
         <v>54.91666666666666</v>
       </c>
       <c r="T124">
+        <v>54.86666666666667</v>
+      </c>
+      <c r="U124">
         <v>-0.01562500000000711</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>-0.0002729092122021326</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>-6.069434328725976E-05</v>
       </c>
-      <c r="W124">
+      <c r="X124">
         <v>-0.001823154056517784</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>54.8</v>
@@ -9819,21 +10194,24 @@
         <v>54.90666666666667</v>
       </c>
       <c r="T125">
+        <v>54.8</v>
+      </c>
+      <c r="U125">
         <v>-0.04062499999999858</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>-0.0002426521884195676</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>-0.0001820940819422523</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>0.0009132420091324533</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>54.9</v>
@@ -9890,21 +10268,24 @@
         <v>54.9</v>
       </c>
       <c r="T126">
+        <v>54.81666666666666</v>
+      </c>
+      <c r="U126">
         <v>-0.03750000000000142</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>-0.00012135554139725</v>
       </c>
-      <c r="V126">
+      <c r="W126">
         <v>-0.0001214181641573386</v>
       </c>
-      <c r="W126">
+      <c r="X126">
         <v>0.001824817518248256</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>54.9</v>
@@ -9961,21 +10342,24 @@
         <v>54.9</v>
       </c>
       <c r="T127">
+        <v>54.86666666666667</v>
+      </c>
+      <c r="U127">
         <v>-0.03125</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>-0.0001213702703524167</v>
       </c>
-      <c r="V127">
-        <v>0</v>
-      </c>
       <c r="W127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:23">
+      <c r="X127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>54.8</v>
@@ -10032,21 +10416,24 @@
         <v>54.89333333333333</v>
       </c>
       <c r="T128">
+        <v>54.86666666666667</v>
+      </c>
+      <c r="U128">
         <v>-0.03125000000000711</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>-0.0001820775043243072</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>-0.0001214329083181198</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>-0.001821493624772352</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>54.95</v>
@@ -10103,21 +10490,24 @@
         <v>54.88999999999999</v>
       </c>
       <c r="T129">
+        <v>54.88333333333333</v>
+      </c>
+      <c r="U129">
         <v>-0.02812499999998863</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>-6.07035541930756E-05</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>-6.072382803024023E-05</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>0.002737226277372384</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>55</v>
@@ -10174,21 +10564,24 @@
         <v>54.89333333333333</v>
       </c>
       <c r="T130">
+        <v>54.91666666666666</v>
+      </c>
+      <c r="U130">
         <v>-0.02812499999998863</v>
       </c>
-      <c r="U130">
-        <v>0</v>
-      </c>
       <c r="V130">
+        <v>0</v>
+      </c>
+      <c r="W130">
         <v>6.072751563745982E-05</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>0.0009099181073701779</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>54.95</v>
@@ -10245,21 +10638,24 @@
         <v>54.89666666666667</v>
       </c>
       <c r="T131">
+        <v>54.96666666666667</v>
+      </c>
+      <c r="U131">
         <v>-0.015625</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>-6.070723933826461E-05</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>6.072382803012921E-05</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>-0.0009090909090908594</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>54.95</v>
@@ -10316,21 +10712,24 @@
         <v>54.89333333333334</v>
       </c>
       <c r="T132">
+        <v>54.96666666666667</v>
+      </c>
+      <c r="U132">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U132">
-        <v>0</v>
-      </c>
       <c r="V132">
+        <v>0</v>
+      </c>
+      <c r="W132">
         <v>-6.072014087066258E-05</v>
       </c>
-      <c r="W132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:23">
+      <c r="X132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>55</v>
@@ -10387,21 +10786,24 @@
         <v>54.9</v>
       </c>
       <c r="T133">
+        <v>54.96666666666667</v>
+      </c>
+      <c r="U133">
         <v>0.03124999999999289</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>6.071092493087349E-05</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>0.0001214476560600364</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>0.0009099181073701779</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>55.05</v>
@@ -10458,21 +10860,24 @@
         <v>54.91</v>
       </c>
       <c r="T134">
+        <v>55</v>
+      </c>
+      <c r="U134">
         <v>0.04062500000000568</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>3.035361966907679E-05</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>0.0001821493624771797</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>0.0009090909090907484</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>54.9</v>
@@ -10529,21 +10934,24 @@
         <v>54.91333333333333</v>
       </c>
       <c r="T135">
+        <v>54.98333333333333</v>
+      </c>
+      <c r="U135">
         <v>0.04062499999999858</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>6.070539670965935E-05</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>-0.002724795640326905</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>55</v>
@@ -10600,21 +11008,24 @@
         <v>54.91999999999999</v>
       </c>
       <c r="T136">
+        <v>54.98333333333333</v>
+      </c>
+      <c r="U136">
         <v>0.05625000000000568</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>9.105809506460005E-05</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>0.0001214034235765826</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>0.001821493624772241</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>55</v>
@@ -10671,21 +11082,24 @@
         <v>54.91999999999999</v>
       </c>
       <c r="T137">
+        <v>54.96666666666667</v>
+      </c>
+      <c r="U137">
         <v>0.05624999999999858</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>6.06998694954175E-05</v>
       </c>
-      <c r="V137">
-        <v>0</v>
-      </c>
       <c r="W137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:23">
+      <c r="X137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>54.9</v>
@@ -10742,21 +11156,24 @@
         <v>54.92333333333332</v>
       </c>
       <c r="T138">
+        <v>54.96666666666667</v>
+      </c>
+      <c r="U138">
         <v>0.05000000000000426</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>6.069618524451315E-05</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>6.069434328725976E-05</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>-0.00181818181818183</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>54.95</v>
@@ -10813,21 +11230,24 @@
         <v>54.93666666666666</v>
       </c>
       <c r="T139">
+        <v>54.95</v>
+      </c>
+      <c r="U139">
         <v>0.04375000000000284</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>9.103875216220914E-05</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>0.0002427626388299409</v>
       </c>
-      <c r="W139">
+      <c r="X139">
         <v>0.0009107468123863427</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>54.95</v>
@@ -10884,21 +11304,24 @@
         <v>54.94666666666667</v>
       </c>
       <c r="T140">
+        <v>54.93333333333334</v>
+      </c>
+      <c r="U140">
         <v>0.03125</v>
       </c>
-      <c r="U140">
-        <v>0</v>
-      </c>
       <c r="V140">
+        <v>0</v>
+      </c>
+      <c r="W140">
         <v>0.0001820277895761002</v>
       </c>
-      <c r="W140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:23">
+      <c r="X140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>55</v>
@@ -10955,21 +11378,24 @@
         <v>54.95333333333334</v>
       </c>
       <c r="T141">
+        <v>54.96666666666667</v>
+      </c>
+      <c r="U141">
         <v>0.01874999999999716</v>
       </c>
-      <c r="U141">
-        <v>0</v>
-      </c>
       <c r="V141">
+        <v>0</v>
+      </c>
+      <c r="W141">
         <v>0.0001213297743265507</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>0.0009099181073701779</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>54.85</v>
@@ -11026,21 +11452,24 @@
         <v>54.95</v>
       </c>
       <c r="T142">
+        <v>54.93333333333334</v>
+      </c>
+      <c r="U142">
         <v>-0.003124999999997158</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>-3.034348828734323E-05</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>-6.065752759920606E-05</v>
       </c>
-      <c r="W142">
+      <c r="X142">
         <v>-0.002727272727272689</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>55</v>
@@ -11097,21 +11526,24 @@
         <v>54.96333333333333</v>
       </c>
       <c r="T143">
+        <v>54.95</v>
+      </c>
+      <c r="U143">
         <v>0.003125000000004263</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>6.068881808518611E-05</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>0.0002426448286318994</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>0.002734731084776731</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>54.9</v>
@@ -11168,21 +11600,24 @@
         <v>54.96000000000001</v>
       </c>
       <c r="T144">
+        <v>54.91666666666666</v>
+      </c>
+      <c r="U144">
         <v>-0.015625</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>-6.06851351760973E-05</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>-6.064649160031355E-05</v>
       </c>
-      <c r="W144">
+      <c r="X144">
         <v>-0.00181818181818183</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>54.85</v>
@@ -11239,21 +11674,24 @@
         <v>54.95</v>
       </c>
       <c r="T145">
+        <v>54.91666666666666</v>
+      </c>
+      <c r="U145">
         <v>-0.02812499999999574</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>-6.068881808529714E-05</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>-0.0001819505094615703</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>-0.0009107468123861207</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>54.9</v>
@@ -11310,21 +11748,24 @@
         <v>54.94666666666667</v>
       </c>
       <c r="T146">
+        <v>54.88333333333333</v>
+      </c>
+      <c r="U146">
         <v>-0.02187500000000853</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>-6.066120715797485E-05</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>0.0009115770282588365</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>54.9</v>
@@ -11381,21 +11822,24 @@
         <v>54.94333333333334</v>
       </c>
       <c r="T147">
+        <v>54.88333333333333</v>
+      </c>
+      <c r="U147">
         <v>-0.02499999999999858</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>-6.069250144147276E-05</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>-6.066488716338636E-05</v>
       </c>
-      <c r="W147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23">
+      <c r="X147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>54.7</v>
@@ -11452,21 +11896,24 @@
         <v>54.92333333333332</v>
       </c>
       <c r="T148">
+        <v>54.83333333333334</v>
+      </c>
+      <c r="U148">
         <v>-0.04062499999999147</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>-0.0001213923704895814</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>-0.0003640114056908672</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>-0.003642987249544594</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>54.8</v>
@@ -11523,21 +11970,24 @@
         <v>54.90666666666667</v>
       </c>
       <c r="T149">
+        <v>54.79999999999999</v>
+      </c>
+      <c r="U149">
         <v>-0.05312500000000142</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>-6.07035541930756E-05</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>-0.000303453298537204</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>0.001828153564899404</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>54.65</v>
@@ -11594,21 +12044,24 @@
         <v>54.89</v>
       </c>
       <c r="T150">
+        <v>54.71666666666667</v>
+      </c>
+      <c r="U150">
         <v>-0.05312500000000142</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>-0.0001214144786766402</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>-0.0003035454103933466</v>
       </c>
-      <c r="W150">
+      <c r="X150">
         <v>-0.002737226277372273</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>54.65</v>
@@ -11665,21 +12118,24 @@
         <v>54.86666666666667</v>
       </c>
       <c r="T151">
+        <v>54.7</v>
+      </c>
+      <c r="U151">
         <v>-0.08125000000000426</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>-0.0001517865274276442</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>-0.0004250926094613305</v>
       </c>
-      <c r="W151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:23">
+      <c r="X151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>54.65</v>
@@ -11736,21 +12192,24 @@
         <v>54.84333333333333</v>
       </c>
       <c r="T152">
+        <v>54.65</v>
+      </c>
+      <c r="U152">
         <v>-0.09062499999999574</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>-0.0002125333981054522</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>-0.0004252733900365069</v>
       </c>
-      <c r="W152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:23">
+      <c r="X152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>54.9</v>
@@ -11807,21 +12266,24 @@
         <v>54.84333333333334</v>
       </c>
       <c r="T153">
+        <v>54.73333333333333</v>
+      </c>
+      <c r="U153">
         <v>-0.078125</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>3.036836830760947E-05</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>0.004574565416285425</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>54.9</v>
@@ -11878,21 +12340,24 @@
         <v>54.84</v>
       </c>
       <c r="T154">
+        <v>54.81666666666666</v>
+      </c>
+      <c r="U154">
         <v>-0.07812500000000711</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>9.110233829323633E-05</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>-6.077918920566194E-05</v>
       </c>
-      <c r="W154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:23">
+      <c r="X154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>54.8</v>
@@ -11949,21 +12414,24 @@
         <v>54.83</v>
       </c>
       <c r="T155">
+        <v>54.86666666666667</v>
+      </c>
+      <c r="U155">
         <v>-0.08124999999999716</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>-0.0001823486506200567</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>-0.001821493624772352</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>54.8</v>
@@ -12020,21 +12488,24 @@
         <v>54.81666666666666</v>
       </c>
       <c r="T156">
+        <v>54.83333333333334</v>
+      </c>
+      <c r="U156">
         <v>-0.05937499999999574</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>-6.072935960899084E-05</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>-0.0002431758769532166</v>
       </c>
-      <c r="W156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:23">
+      <c r="X156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>54.7</v>
@@ -12091,21 +12562,24 @@
         <v>54.80666666666666</v>
       </c>
       <c r="T157">
+        <v>54.76666666666666</v>
+      </c>
+      <c r="U157">
         <v>-0.05312499999999432</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>-0.0001214660957759017</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>-0.0001824262693825851</v>
       </c>
-      <c r="W157">
+      <c r="X157">
         <v>-0.001824817518248034</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>54.75</v>
@@ -12162,21 +12636,24 @@
         <v>54.79</v>
       </c>
       <c r="T158">
+        <v>54.75</v>
+      </c>
+      <c r="U158">
         <v>-0.03437500000000426</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>-3.037021289520325E-05</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>-0.0003040992579977919</v>
       </c>
-      <c r="W158">
+      <c r="X158">
         <v>0.000914076782449591</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>54.65</v>
@@ -12233,21 +12710,24 @@
         <v>54.77333333333333</v>
       </c>
       <c r="T159">
+        <v>54.7</v>
+      </c>
+      <c r="U159">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>-0.0001822268116382642</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>-0.0003041917624871937</v>
       </c>
-      <c r="W159">
+      <c r="X159">
         <v>-0.001826484018264907</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>54.65</v>
@@ -12304,21 +12784,24 @@
         <v>54.76</v>
       </c>
       <c r="T160">
+        <v>54.68333333333334</v>
+      </c>
+      <c r="U160">
         <v>0.003125000000004263</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>-0.0002126366950181424</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>-0.0002434274586172736</v>
       </c>
-      <c r="W160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:23">
+      <c r="X160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>54.7</v>
@@ -12375,21 +12858,24 @@
         <v>54.74666666666666</v>
       </c>
       <c r="T161">
+        <v>54.66666666666666</v>
+      </c>
+      <c r="U161">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>-0.0001519156564275814</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>-0.000243486729973208</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>0.0009149130832570851</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>54.7</v>
@@ -12446,21 +12932,24 @@
         <v>54.73333333333333</v>
       </c>
       <c r="T162">
+        <v>54.68333333333334</v>
+      </c>
+      <c r="U162">
         <v>-0.02499999999999858</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>-0.000151938738300883</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>-0.000243546030199604</v>
       </c>
-      <c r="W162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:23">
+      <c r="X162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>54.7</v>
@@ -12517,21 +13006,24 @@
         <v>54.73333333333333</v>
       </c>
       <c r="T163">
+        <v>54.7</v>
+      </c>
+      <c r="U163">
         <v>-0.02499999999999147</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>-0.0001823541926267991</v>
       </c>
-      <c r="V163">
-        <v>0</v>
-      </c>
       <c r="W163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:23">
+      <c r="X163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>54.7</v>
@@ -12588,21 +13080,24 @@
         <v>54.72666666666667</v>
       </c>
       <c r="T164">
+        <v>54.70000000000001</v>
+      </c>
+      <c r="U164">
         <v>-0.03750000000000142</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>-0.0002127853603671737</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>-0.0001218026796589999</v>
       </c>
-      <c r="W164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:23">
+      <c r="X164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>54.7</v>
@@ -12659,21 +13154,24 @@
         <v>54.73</v>
       </c>
       <c r="T165">
+        <v>54.7</v>
+      </c>
+      <c r="U165">
         <v>-0.03125</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>-0.0001216175129220565</v>
       </c>
-      <c r="V165">
+      <c r="W165">
         <v>6.090875867958978E-05</v>
       </c>
-      <c r="W165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:23">
+      <c r="X165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>54.7</v>
@@ -12730,21 +13228,24 @@
         <v>54.73333333333333</v>
       </c>
       <c r="T166">
+        <v>54.70000000000001</v>
+      </c>
+      <c r="U166">
         <v>-0.04062499999999858</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>-0.0001824484583105024</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>6.090504902855898E-05</v>
       </c>
-      <c r="W166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:23">
+      <c r="X166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>54.7</v>
@@ -12801,21 +13302,24 @@
         <v>54.73666666666667</v>
       </c>
       <c r="T167">
+        <v>54.7</v>
+      </c>
+      <c r="U167">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>-0.0001824817518248922</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>6.090133982961099E-05</v>
       </c>
-      <c r="W167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:23">
+      <c r="X167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>54.75</v>
@@ -12872,21 +13376,24 @@
         <v>54.72666666666667</v>
       </c>
       <c r="T168">
+        <v>54.71666666666667</v>
+      </c>
+      <c r="U168">
         <v>-0.03125</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>-9.125752874605819E-05</v>
       </c>
-      <c r="V168">
+      <c r="W168">
         <v>-0.0001826928932464611</v>
       </c>
-      <c r="W168">
+      <c r="X168">
         <v>0.000914076782449591</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>54.75</v>
@@ -12943,21 +13450,24 @@
         <v>54.71666666666667</v>
       </c>
       <c r="T169">
+        <v>54.73333333333333</v>
+      </c>
+      <c r="U169">
         <v>-0.015625</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>-0.0001216878099236096</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>-0.0001827262760385473</v>
       </c>
-      <c r="W169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:23">
+      <c r="X169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>54.8</v>
@@ -13014,21 +13524,24 @@
         <v>54.71666666666667</v>
       </c>
       <c r="T170">
+        <v>54.76666666666667</v>
+      </c>
+      <c r="U170">
         <v>0.003125000000004263</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>-9.12769647365419E-05</v>
       </c>
-      <c r="V170">
-        <v>0</v>
-      </c>
       <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170">
         <v>0.0009132420091324533</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>54.8</v>
@@ -13085,15 +13598,18 @@
         <v>54.71666666666668</v>
       </c>
       <c r="T171">
+        <v>54.78333333333333</v>
+      </c>
+      <c r="U171">
         <v>0.01562499999999289</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>-0.0001217137293086923</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>0</v>
       </c>
     </row>
